--- a/data-migration/xlsx_1900-/1921_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1921_Sommer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20248D8-A02B-439D-A15B-610F941DD6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F243FF3F-96F5-4D7E-9D09-D058E4C541A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4920" yWindow="-20625" windowWidth="38700" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="993">
   <si>
     <t>Sommer</t>
   </si>
@@ -2815,9 +2815,6 @@
     <t>letsch_e</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>mueller_h2</t>
   </si>
   <si>
@@ -2836,18 +2833,12 @@
     <t>bloch_b</t>
   </si>
   <si>
-    <t>walthard _m</t>
-  </si>
-  <si>
     <t>meyerrueegg_h</t>
   </si>
   <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>maier_hw</t>
   </si>
   <si>
@@ -2857,9 +2848,6 @@
     <t>silberschmidt _w</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -2996,6 +2984,21 @@
   </si>
   <si>
     <t>graenacher_c</t>
+  </si>
+  <si>
+    <t>zuercher_e2</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>walthard_m</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -3339,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D427" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H416" sqref="H416"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3374,7 +3377,7 @@
         <v>811</v>
       </c>
       <c r="I1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3400,7 +3403,7 @@
         <v>812</v>
       </c>
       <c r="I2" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3426,7 +3429,7 @@
         <v>812</v>
       </c>
       <c r="I3" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3449,10 +3452,10 @@
         <v>493</v>
       </c>
       <c r="H4" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="I4" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3478,7 +3481,7 @@
         <v>811</v>
       </c>
       <c r="I5" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3501,10 +3504,10 @@
         <v>495</v>
       </c>
       <c r="H6" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="I6" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3527,10 +3530,10 @@
         <v>496</v>
       </c>
       <c r="H7" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="I7" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3556,7 +3559,7 @@
         <v>814</v>
       </c>
       <c r="I8" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3582,7 +3585,7 @@
         <v>815</v>
       </c>
       <c r="I9" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3605,13 +3608,13 @@
         <v>499</v>
       </c>
       <c r="H10" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="I10" t="s">
+        <v>970</v>
+      </c>
+      <c r="J10" t="s">
         <v>974</v>
-      </c>
-      <c r="J10" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3637,7 +3640,7 @@
         <v>814</v>
       </c>
       <c r="I11" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3660,10 +3663,10 @@
         <v>501</v>
       </c>
       <c r="H12" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="I12" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3689,7 +3692,7 @@
         <v>813</v>
       </c>
       <c r="I13" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -3715,7 +3718,7 @@
         <v>813</v>
       </c>
       <c r="I14" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -3741,7 +3744,7 @@
         <v>813</v>
       </c>
       <c r="I15" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3764,10 +3767,10 @@
         <v>505</v>
       </c>
       <c r="H16" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="I16" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3790,10 +3793,10 @@
         <v>506</v>
       </c>
       <c r="H17" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="I17" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3819,7 +3822,7 @@
         <v>812</v>
       </c>
       <c r="I18" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3842,13 +3845,13 @@
         <v>508</v>
       </c>
       <c r="H19" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="I19" t="s">
+        <v>970</v>
+      </c>
+      <c r="J19" t="s">
         <v>974</v>
-      </c>
-      <c r="J19" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3874,7 +3877,7 @@
         <v>811</v>
       </c>
       <c r="I20" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3900,7 +3903,7 @@
         <v>814</v>
       </c>
       <c r="I21" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3923,13 +3926,13 @@
         <v>511</v>
       </c>
       <c r="H22" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="I22" t="s">
+        <v>970</v>
+      </c>
+      <c r="J22" t="s">
         <v>974</v>
-      </c>
-      <c r="J22" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3955,7 +3958,7 @@
         <v>813</v>
       </c>
       <c r="I23" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3978,10 +3981,10 @@
         <v>496</v>
       </c>
       <c r="H24" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="I24" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4004,13 +4007,13 @@
         <v>513</v>
       </c>
       <c r="H25" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="I25" t="s">
+        <v>970</v>
+      </c>
+      <c r="J25" t="s">
         <v>974</v>
-      </c>
-      <c r="J25" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4036,7 +4039,7 @@
         <v>812</v>
       </c>
       <c r="I26" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4062,7 +4065,7 @@
         <v>816</v>
       </c>
       <c r="I27" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4088,7 +4091,7 @@
         <v>817</v>
       </c>
       <c r="I28" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4111,10 +4114,10 @@
         <v>517</v>
       </c>
       <c r="H29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="I29" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4140,7 +4143,7 @@
         <v>818</v>
       </c>
       <c r="I30" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4166,7 +4169,7 @@
         <v>819</v>
       </c>
       <c r="I31" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4192,7 +4195,7 @@
         <v>818</v>
       </c>
       <c r="I32" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -4215,10 +4218,10 @@
         <v>521</v>
       </c>
       <c r="H33" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="I33" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -4241,10 +4244,10 @@
         <v>522</v>
       </c>
       <c r="H34" t="s">
-        <v>931</v>
+        <v>989</v>
       </c>
       <c r="I34" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -4270,7 +4273,7 @@
         <v>819</v>
       </c>
       <c r="I35" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -4296,7 +4299,7 @@
         <v>818</v>
       </c>
       <c r="I36" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -4322,7 +4325,7 @@
         <v>821</v>
       </c>
       <c r="I37" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -4348,7 +4351,7 @@
         <v>822</v>
       </c>
       <c r="I38" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -4374,7 +4377,7 @@
         <v>821</v>
       </c>
       <c r="I39" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -4400,7 +4403,7 @@
         <v>822</v>
       </c>
       <c r="I40" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -4426,7 +4429,7 @@
         <v>823</v>
       </c>
       <c r="I41" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -4449,10 +4452,10 @@
         <v>529</v>
       </c>
       <c r="H42" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="I42" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -4475,10 +4478,10 @@
         <v>530</v>
       </c>
       <c r="H43" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="I43" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -4504,7 +4507,7 @@
         <v>825</v>
       </c>
       <c r="I44" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4530,7 +4533,7 @@
         <v>825</v>
       </c>
       <c r="I45" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -4553,10 +4556,10 @@
         <v>532</v>
       </c>
       <c r="H46" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I46" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -4582,7 +4585,7 @@
         <v>826</v>
       </c>
       <c r="I47" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4608,7 +4611,7 @@
         <v>827</v>
       </c>
       <c r="I48" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -4634,7 +4637,7 @@
         <v>828</v>
       </c>
       <c r="I49" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -4660,7 +4663,7 @@
         <v>829</v>
       </c>
       <c r="I50" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -4683,10 +4686,10 @@
         <v>535</v>
       </c>
       <c r="H51" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I51" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -4712,7 +4715,7 @@
         <v>830</v>
       </c>
       <c r="I52" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -4735,10 +4738,10 @@
         <v>537</v>
       </c>
       <c r="H53" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I53" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -4764,10 +4767,10 @@
         <v>831</v>
       </c>
       <c r="I54" t="s">
+        <v>970</v>
+      </c>
+      <c r="J54" t="s">
         <v>974</v>
-      </c>
-      <c r="J54" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -4793,7 +4796,7 @@
         <v>832</v>
       </c>
       <c r="I55" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -4816,10 +4819,10 @@
         <v>540</v>
       </c>
       <c r="H56" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I56" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -4845,7 +4848,7 @@
         <v>834</v>
       </c>
       <c r="I57" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -4871,7 +4874,7 @@
         <v>835</v>
       </c>
       <c r="I58" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -4897,7 +4900,7 @@
         <v>835</v>
       </c>
       <c r="I59" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -4920,10 +4923,10 @@
         <v>544</v>
       </c>
       <c r="H60" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="I60" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -4949,7 +4952,7 @@
         <v>825</v>
       </c>
       <c r="I61" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -4975,7 +4978,7 @@
         <v>818</v>
       </c>
       <c r="I62" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5001,7 +5004,7 @@
         <v>819</v>
       </c>
       <c r="I63" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5027,7 +5030,7 @@
         <v>822</v>
       </c>
       <c r="I64" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -5050,10 +5053,10 @@
         <v>548</v>
       </c>
       <c r="H65" t="s">
-        <v>931</v>
+        <v>989</v>
       </c>
       <c r="I65" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -5079,7 +5082,7 @@
         <v>821</v>
       </c>
       <c r="I66" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -5105,7 +5108,7 @@
         <v>823</v>
       </c>
       <c r="I67" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -5125,10 +5128,10 @@
         <v>76</v>
       </c>
       <c r="H68" t="s">
-        <v>823</v>
+        <v>988</v>
       </c>
       <c r="I68" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -5154,7 +5157,7 @@
         <v>829</v>
       </c>
       <c r="I69" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -5180,7 +5183,7 @@
         <v>829</v>
       </c>
       <c r="I70" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -5206,10 +5209,10 @@
         <v>831</v>
       </c>
       <c r="I71" t="s">
+        <v>970</v>
+      </c>
+      <c r="J71" t="s">
         <v>974</v>
-      </c>
-      <c r="J71" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -5235,10 +5238,10 @@
         <v>831</v>
       </c>
       <c r="I72" t="s">
+        <v>970</v>
+      </c>
+      <c r="J72" t="s">
         <v>974</v>
-      </c>
-      <c r="J72" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -5261,10 +5264,10 @@
         <v>551</v>
       </c>
       <c r="H73" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I73" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -5290,7 +5293,7 @@
         <v>828</v>
       </c>
       <c r="I74" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -5313,10 +5316,10 @@
         <v>553</v>
       </c>
       <c r="H75" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I75" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -5342,7 +5345,7 @@
         <v>830</v>
       </c>
       <c r="I76" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -5368,7 +5371,7 @@
         <v>832</v>
       </c>
       <c r="I77" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -5391,10 +5394,10 @@
         <v>555</v>
       </c>
       <c r="H78" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I78" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -5420,7 +5423,7 @@
         <v>835</v>
       </c>
       <c r="I79" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -5446,7 +5449,7 @@
         <v>835</v>
       </c>
       <c r="I80" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5472,7 +5475,7 @@
         <v>835</v>
       </c>
       <c r="I81" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5498,7 +5501,7 @@
         <v>836</v>
       </c>
       <c r="I82" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5521,10 +5524,10 @@
         <v>560</v>
       </c>
       <c r="H83" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="I83" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5553,7 +5556,7 @@
         <v>837</v>
       </c>
       <c r="I84" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -5579,7 +5582,7 @@
         <v>837</v>
       </c>
       <c r="I85" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -5605,7 +5608,7 @@
         <v>837</v>
       </c>
       <c r="I86" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -5631,7 +5634,7 @@
         <v>837</v>
       </c>
       <c r="I87" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -5657,7 +5660,7 @@
         <v>837</v>
       </c>
       <c r="I88" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -5686,7 +5689,7 @@
         <v>838</v>
       </c>
       <c r="I89" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -5709,10 +5712,10 @@
         <v>567</v>
       </c>
       <c r="H90" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="I90" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -5735,10 +5738,10 @@
         <v>568</v>
       </c>
       <c r="H91" t="s">
+        <v>967</v>
+      </c>
+      <c r="I91" t="s">
         <v>971</v>
-      </c>
-      <c r="I91" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -5761,10 +5764,10 @@
         <v>528</v>
       </c>
       <c r="H92" t="s">
+        <v>967</v>
+      </c>
+      <c r="I92" t="s">
         <v>971</v>
-      </c>
-      <c r="I92" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -5787,10 +5790,10 @@
         <v>569</v>
       </c>
       <c r="H93" t="s">
+        <v>967</v>
+      </c>
+      <c r="I93" t="s">
         <v>971</v>
-      </c>
-      <c r="I93" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -5813,10 +5816,10 @@
         <v>570</v>
       </c>
       <c r="H94" t="s">
+        <v>967</v>
+      </c>
+      <c r="I94" t="s">
         <v>971</v>
-      </c>
-      <c r="I94" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -5842,7 +5845,7 @@
         <v>839</v>
       </c>
       <c r="I95" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -5865,10 +5868,10 @@
         <v>572</v>
       </c>
       <c r="H96" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="I96" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -5891,10 +5894,10 @@
         <v>573</v>
       </c>
       <c r="H97" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="I97" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -5917,10 +5920,10 @@
         <v>574</v>
       </c>
       <c r="H98" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="I98" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -5943,10 +5946,10 @@
         <v>575</v>
       </c>
       <c r="H99" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I99" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -5969,10 +5972,10 @@
         <v>576</v>
       </c>
       <c r="H100" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="I100" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -5998,7 +6001,7 @@
         <v>841</v>
       </c>
       <c r="I101" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -6024,7 +6027,7 @@
         <v>841</v>
       </c>
       <c r="I102" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -6050,7 +6053,7 @@
         <v>841</v>
       </c>
       <c r="I103" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -6076,7 +6079,7 @@
         <v>841</v>
       </c>
       <c r="I104" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -6102,7 +6105,7 @@
         <v>841</v>
       </c>
       <c r="I105" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -6125,10 +6128,10 @@
         <v>582</v>
       </c>
       <c r="H106" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I106" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -6151,16 +6154,16 @@
         <v>583</v>
       </c>
       <c r="H107" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I107" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="K107" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="L107" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -6183,10 +6186,10 @@
         <v>584</v>
       </c>
       <c r="H108" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I108" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -6212,7 +6215,7 @@
         <v>842</v>
       </c>
       <c r="I109" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -6238,7 +6241,7 @@
         <v>842</v>
       </c>
       <c r="I110" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -6264,7 +6267,7 @@
         <v>842</v>
       </c>
       <c r="I111" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -6287,10 +6290,10 @@
         <v>588</v>
       </c>
       <c r="H112" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I112" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -6313,10 +6316,10 @@
         <v>504</v>
       </c>
       <c r="H113" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I113" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -6339,13 +6342,13 @@
         <v>589</v>
       </c>
       <c r="H114" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I114" t="s">
+        <v>970</v>
+      </c>
+      <c r="J114" t="s">
         <v>974</v>
-      </c>
-      <c r="J114" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -6368,13 +6371,13 @@
         <v>590</v>
       </c>
       <c r="H115" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I115" t="s">
+        <v>970</v>
+      </c>
+      <c r="J115" t="s">
         <v>974</v>
-      </c>
-      <c r="J115" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -6397,13 +6400,13 @@
         <v>591</v>
       </c>
       <c r="H116" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I116" t="s">
+        <v>970</v>
+      </c>
+      <c r="J116" t="s">
         <v>974</v>
-      </c>
-      <c r="J116" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -6426,10 +6429,10 @@
         <v>592</v>
       </c>
       <c r="H117" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="I117" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -6455,7 +6458,7 @@
         <v>843</v>
       </c>
       <c r="I118" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -6481,7 +6484,7 @@
         <v>843</v>
       </c>
       <c r="I119" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -6507,7 +6510,7 @@
         <v>844</v>
       </c>
       <c r="I120" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -6533,7 +6536,7 @@
         <v>844</v>
       </c>
       <c r="I121" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -6559,7 +6562,7 @@
         <v>844</v>
       </c>
       <c r="I122" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -6585,7 +6588,7 @@
         <v>845</v>
       </c>
       <c r="I123" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -6611,7 +6614,7 @@
         <v>845</v>
       </c>
       <c r="I124" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -6637,7 +6640,7 @@
         <v>845</v>
       </c>
       <c r="I125" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -6663,7 +6666,7 @@
         <v>846</v>
       </c>
       <c r="I126" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -6686,10 +6689,10 @@
         <v>504</v>
       </c>
       <c r="H127" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="I127" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -6712,10 +6715,10 @@
         <v>504</v>
       </c>
       <c r="H128" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="I128" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -6741,7 +6744,7 @@
         <v>847</v>
       </c>
       <c r="I129" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -6767,7 +6770,7 @@
         <v>847</v>
       </c>
       <c r="I130" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -6793,7 +6796,7 @@
         <v>847</v>
       </c>
       <c r="I131" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -6819,7 +6822,7 @@
         <v>848</v>
       </c>
       <c r="I132" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -6845,7 +6848,7 @@
         <v>849</v>
       </c>
       <c r="I133" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -6871,7 +6874,7 @@
         <v>849</v>
       </c>
       <c r="I134" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -6897,7 +6900,7 @@
         <v>849</v>
       </c>
       <c r="I135" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -6923,7 +6926,7 @@
         <v>850</v>
       </c>
       <c r="I136" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -6946,10 +6949,10 @@
         <v>603</v>
       </c>
       <c r="H137" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="I137" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -6975,7 +6978,7 @@
         <v>852</v>
       </c>
       <c r="I138" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -7001,7 +7004,7 @@
         <v>853</v>
       </c>
       <c r="I139" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -7027,7 +7030,7 @@
         <v>853</v>
       </c>
       <c r="I140" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -7053,7 +7056,7 @@
         <v>854</v>
       </c>
       <c r="I141" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -7079,7 +7082,7 @@
         <v>854</v>
       </c>
       <c r="I142" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -7102,10 +7105,10 @@
         <v>608</v>
       </c>
       <c r="H143" t="s">
-        <v>938</v>
+        <v>990</v>
       </c>
       <c r="I143" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -7128,10 +7131,10 @@
         <v>609</v>
       </c>
       <c r="H144" t="s">
-        <v>938</v>
+        <v>990</v>
       </c>
       <c r="I144" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -7154,10 +7157,10 @@
         <v>610</v>
       </c>
       <c r="H145" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I145" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -7180,10 +7183,10 @@
         <v>611</v>
       </c>
       <c r="H146" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="I146" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -7206,10 +7209,10 @@
         <v>612</v>
       </c>
       <c r="H147" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="I147" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -7232,10 +7235,10 @@
         <v>509</v>
       </c>
       <c r="H148" t="s">
-        <v>941</v>
+        <v>991</v>
       </c>
       <c r="I148" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -7258,10 +7261,10 @@
         <v>545</v>
       </c>
       <c r="H149" t="s">
-        <v>941</v>
+        <v>991</v>
       </c>
       <c r="I149" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -7284,10 +7287,10 @@
         <v>613</v>
       </c>
       <c r="H150" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="I150" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -7310,10 +7313,10 @@
         <v>614</v>
       </c>
       <c r="H151" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="I151" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -7336,10 +7339,10 @@
         <v>615</v>
       </c>
       <c r="H152" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="I152" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -7365,7 +7368,7 @@
         <v>855</v>
       </c>
       <c r="I153" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -7391,7 +7394,7 @@
         <v>855</v>
       </c>
       <c r="I154" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -7417,7 +7420,7 @@
         <v>833</v>
       </c>
       <c r="I155" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -7443,7 +7446,7 @@
         <v>833</v>
       </c>
       <c r="I156" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -7466,10 +7469,10 @@
         <v>553</v>
       </c>
       <c r="H157" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="I157" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -7492,10 +7495,10 @@
         <v>620</v>
       </c>
       <c r="H158" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="I158" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -7518,10 +7521,10 @@
         <v>621</v>
       </c>
       <c r="H159" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="I159" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -7544,10 +7547,10 @@
         <v>622</v>
       </c>
       <c r="H160" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="I160" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -7570,10 +7573,10 @@
         <v>623</v>
       </c>
       <c r="H161" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="I161" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -7596,10 +7599,10 @@
         <v>587</v>
       </c>
       <c r="H162" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="I162" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -7622,10 +7625,10 @@
         <v>624</v>
       </c>
       <c r="H163" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I163" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -7648,10 +7651,10 @@
         <v>625</v>
       </c>
       <c r="H164" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I164" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -7674,10 +7677,10 @@
         <v>626</v>
       </c>
       <c r="H165" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I165" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -7700,10 +7703,10 @@
         <v>627</v>
       </c>
       <c r="H166" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I166" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -7726,10 +7729,10 @@
         <v>628</v>
       </c>
       <c r="H167" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I167" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -7755,7 +7758,7 @@
         <v>856</v>
       </c>
       <c r="I168" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -7781,7 +7784,7 @@
         <v>856</v>
       </c>
       <c r="I169" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -7807,7 +7810,7 @@
         <v>856</v>
       </c>
       <c r="I170" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -7833,7 +7836,7 @@
         <v>856</v>
       </c>
       <c r="I171" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -7859,7 +7862,7 @@
         <v>856</v>
       </c>
       <c r="I172" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -7882,10 +7885,10 @@
         <v>633</v>
       </c>
       <c r="H173" t="s">
-        <v>945</v>
+        <v>992</v>
       </c>
       <c r="I173" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -7908,10 +7911,10 @@
         <v>634</v>
       </c>
       <c r="H174" t="s">
-        <v>945</v>
+        <v>992</v>
       </c>
       <c r="I174" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -7934,10 +7937,10 @@
         <v>635</v>
       </c>
       <c r="H175" t="s">
-        <v>945</v>
+        <v>992</v>
       </c>
       <c r="I175" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -7963,7 +7966,7 @@
         <v>857</v>
       </c>
       <c r="I176" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -7986,10 +7989,10 @@
         <v>637</v>
       </c>
       <c r="H177" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="I177" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -8012,10 +8015,10 @@
         <v>504</v>
       </c>
       <c r="H178" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="I178" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -8041,7 +8044,7 @@
         <v>858</v>
       </c>
       <c r="I179" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -8067,7 +8070,7 @@
         <v>858</v>
       </c>
       <c r="I180" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -8093,7 +8096,7 @@
         <v>858</v>
       </c>
       <c r="I181" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -8119,7 +8122,7 @@
         <v>859</v>
       </c>
       <c r="I182" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -8145,7 +8148,7 @@
         <v>859</v>
       </c>
       <c r="I183" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -8171,7 +8174,7 @@
         <v>859</v>
       </c>
       <c r="I184" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -8194,10 +8197,10 @@
         <v>642</v>
       </c>
       <c r="H185" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="I185" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -8220,10 +8223,10 @@
         <v>643</v>
       </c>
       <c r="H186" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="I186" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -8246,10 +8249,10 @@
         <v>515</v>
       </c>
       <c r="H187" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="I187" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -8272,10 +8275,10 @@
         <v>644</v>
       </c>
       <c r="H188" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="I188" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -8298,10 +8301,10 @@
         <v>645</v>
       </c>
       <c r="H189" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="I189" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -8324,10 +8327,10 @@
         <v>646</v>
       </c>
       <c r="H190" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="I190" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -8350,10 +8353,10 @@
         <v>647</v>
       </c>
       <c r="H191" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="I191" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -8376,10 +8379,10 @@
         <v>648</v>
       </c>
       <c r="H192" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="I192" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -8402,10 +8405,10 @@
         <v>649</v>
       </c>
       <c r="H193" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="I193" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -8431,7 +8434,7 @@
         <v>860</v>
       </c>
       <c r="I194" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -8457,13 +8460,13 @@
         <v>860</v>
       </c>
       <c r="I195" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="K195" t="s">
         <v>861</v>
       </c>
       <c r="L195" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -8489,7 +8492,7 @@
         <v>860</v>
       </c>
       <c r="I196" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -8515,7 +8518,7 @@
         <v>860</v>
       </c>
       <c r="I197" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -8541,13 +8544,13 @@
         <v>860</v>
       </c>
       <c r="I198" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="K198" t="s">
         <v>861</v>
       </c>
       <c r="L198" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -8573,7 +8576,7 @@
         <v>860</v>
       </c>
       <c r="I199" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -8599,7 +8602,7 @@
         <v>860</v>
       </c>
       <c r="I200" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -8625,7 +8628,7 @@
         <v>861</v>
       </c>
       <c r="I201" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -8651,7 +8654,7 @@
         <v>861</v>
       </c>
       <c r="I202" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -8677,7 +8680,7 @@
         <v>861</v>
       </c>
       <c r="I203" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -8703,7 +8706,7 @@
         <v>861</v>
       </c>
       <c r="I204" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -8729,7 +8732,7 @@
         <v>861</v>
       </c>
       <c r="I205" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -8755,7 +8758,7 @@
         <v>862</v>
       </c>
       <c r="I206" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -8781,7 +8784,7 @@
         <v>862</v>
       </c>
       <c r="I207" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -8807,7 +8810,7 @@
         <v>862</v>
       </c>
       <c r="I208" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -8833,7 +8836,7 @@
         <v>862</v>
       </c>
       <c r="I209" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -8859,7 +8862,7 @@
         <v>862</v>
       </c>
       <c r="I210" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -8885,7 +8888,7 @@
         <v>862</v>
       </c>
       <c r="I211" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -8911,7 +8914,7 @@
         <v>862</v>
       </c>
       <c r="I212" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -8937,7 +8940,7 @@
         <v>824</v>
       </c>
       <c r="I213" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -8963,7 +8966,7 @@
         <v>863</v>
       </c>
       <c r="I214" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -8989,7 +8992,7 @@
         <v>863</v>
       </c>
       <c r="I215" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -9015,7 +9018,7 @@
         <v>863</v>
       </c>
       <c r="I216" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -9041,10 +9044,10 @@
         <v>864</v>
       </c>
       <c r="I217" t="s">
+        <v>970</v>
+      </c>
+      <c r="J217" t="s">
         <v>974</v>
-      </c>
-      <c r="J217" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -9070,10 +9073,10 @@
         <v>864</v>
       </c>
       <c r="I218" t="s">
+        <v>970</v>
+      </c>
+      <c r="J218" t="s">
         <v>974</v>
-      </c>
-      <c r="J218" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -9099,10 +9102,10 @@
         <v>864</v>
       </c>
       <c r="I219" t="s">
+        <v>970</v>
+      </c>
+      <c r="J219" t="s">
         <v>974</v>
-      </c>
-      <c r="J219" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -9128,10 +9131,10 @@
         <v>864</v>
       </c>
       <c r="I220" t="s">
+        <v>970</v>
+      </c>
+      <c r="J220" t="s">
         <v>974</v>
-      </c>
-      <c r="J220" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -9157,10 +9160,10 @@
         <v>864</v>
       </c>
       <c r="I221" t="s">
+        <v>970</v>
+      </c>
+      <c r="J221" t="s">
         <v>974</v>
-      </c>
-      <c r="J221" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -9183,10 +9186,10 @@
         <v>546</v>
       </c>
       <c r="H222" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="I222" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -9209,10 +9212,10 @@
         <v>672</v>
       </c>
       <c r="H223" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="I223" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -9235,10 +9238,10 @@
         <v>673</v>
       </c>
       <c r="H224" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="I224" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -9264,7 +9267,7 @@
         <v>865</v>
       </c>
       <c r="I225" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -9290,7 +9293,7 @@
         <v>865</v>
       </c>
       <c r="I226" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -9316,7 +9319,7 @@
         <v>865</v>
       </c>
       <c r="I227" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -9342,7 +9345,7 @@
         <v>865</v>
       </c>
       <c r="I228" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -9368,7 +9371,7 @@
         <v>865</v>
       </c>
       <c r="I229" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -9394,7 +9397,7 @@
         <v>866</v>
       </c>
       <c r="I230" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -9420,7 +9423,7 @@
         <v>867</v>
       </c>
       <c r="I231" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -9446,7 +9449,7 @@
         <v>867</v>
       </c>
       <c r="I232" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -9472,7 +9475,7 @@
         <v>867</v>
       </c>
       <c r="I233" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -9498,7 +9501,7 @@
         <v>868</v>
       </c>
       <c r="I234" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -9524,7 +9527,7 @@
         <v>869</v>
       </c>
       <c r="I235" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -9550,7 +9553,7 @@
         <v>869</v>
       </c>
       <c r="I236" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -9576,7 +9579,7 @@
         <v>870</v>
       </c>
       <c r="I237" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -9602,7 +9605,7 @@
         <v>870</v>
       </c>
       <c r="I238" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -9628,7 +9631,7 @@
         <v>868</v>
       </c>
       <c r="I239" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -9654,7 +9657,7 @@
         <v>871</v>
       </c>
       <c r="I240" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -9680,7 +9683,7 @@
         <v>871</v>
       </c>
       <c r="I241" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -9706,7 +9709,7 @@
         <v>871</v>
       </c>
       <c r="I242" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -9732,7 +9735,7 @@
         <v>871</v>
       </c>
       <c r="I243" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -9755,10 +9758,10 @@
         <v>689</v>
       </c>
       <c r="H244" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="I244" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -9781,10 +9784,10 @@
         <v>690</v>
       </c>
       <c r="H245" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="I245" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -9810,7 +9813,7 @@
         <v>872</v>
       </c>
       <c r="I246" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -9836,7 +9839,7 @@
         <v>872</v>
       </c>
       <c r="I247" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -9862,7 +9865,7 @@
         <v>869</v>
       </c>
       <c r="I248" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -9888,7 +9891,7 @@
         <v>871</v>
       </c>
       <c r="I249" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -9911,10 +9914,10 @@
         <v>495</v>
       </c>
       <c r="H250" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="I250" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -9940,7 +9943,7 @@
         <v>868</v>
       </c>
       <c r="I251" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -9963,10 +9966,10 @@
         <v>693</v>
       </c>
       <c r="H252" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="I252" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -9992,7 +9995,7 @@
         <v>870</v>
       </c>
       <c r="I253" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -10018,7 +10021,7 @@
         <v>868</v>
       </c>
       <c r="I254" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -10044,7 +10047,7 @@
         <v>868</v>
       </c>
       <c r="I255" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -10067,10 +10070,10 @@
         <v>603</v>
       </c>
       <c r="H256" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="I256" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -10096,7 +10099,7 @@
         <v>873</v>
       </c>
       <c r="I257" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -10122,7 +10125,7 @@
         <v>874</v>
       </c>
       <c r="I258" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -10148,7 +10151,7 @@
         <v>875</v>
       </c>
       <c r="I259" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -10174,7 +10177,7 @@
         <v>875</v>
       </c>
       <c r="I260" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -10200,7 +10203,7 @@
         <v>875</v>
       </c>
       <c r="I261" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -10226,7 +10229,7 @@
         <v>875</v>
       </c>
       <c r="I262" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -10252,7 +10255,7 @@
         <v>875</v>
       </c>
       <c r="I263" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -10278,7 +10281,7 @@
         <v>816</v>
       </c>
       <c r="I264" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -10304,7 +10307,7 @@
         <v>876</v>
       </c>
       <c r="I265" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -10330,7 +10333,7 @@
         <v>876</v>
       </c>
       <c r="I266" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -10356,7 +10359,7 @@
         <v>816</v>
       </c>
       <c r="I267" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -10382,7 +10385,7 @@
         <v>816</v>
       </c>
       <c r="I268" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -10408,7 +10411,7 @@
         <v>876</v>
       </c>
       <c r="I269" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -10434,7 +10437,7 @@
         <v>840</v>
       </c>
       <c r="I270" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -10460,7 +10463,7 @@
         <v>811</v>
       </c>
       <c r="I271" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -10486,7 +10489,7 @@
         <v>840</v>
       </c>
       <c r="I272" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -10512,7 +10515,7 @@
         <v>877</v>
       </c>
       <c r="I273" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -10538,7 +10541,7 @@
         <v>877</v>
       </c>
       <c r="I274" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -10564,7 +10567,7 @@
         <v>840</v>
       </c>
       <c r="I275" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -10590,7 +10593,7 @@
         <v>877</v>
       </c>
       <c r="I276" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -10616,7 +10619,7 @@
         <v>877</v>
       </c>
       <c r="I277" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -10642,7 +10645,7 @@
         <v>876</v>
       </c>
       <c r="I278" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -10665,10 +10668,10 @@
         <v>496</v>
       </c>
       <c r="H279" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="I279" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -10694,7 +10697,7 @@
         <v>876</v>
       </c>
       <c r="I280" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -10720,7 +10723,7 @@
         <v>878</v>
       </c>
       <c r="I281" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -10746,7 +10749,7 @@
         <v>878</v>
       </c>
       <c r="I282" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -10769,10 +10772,10 @@
         <v>496</v>
       </c>
       <c r="H283" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="I283" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -10795,10 +10798,10 @@
         <v>516</v>
       </c>
       <c r="H284" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="I284" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -10821,10 +10824,10 @@
         <v>658</v>
       </c>
       <c r="H285" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="I285" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -10850,7 +10853,7 @@
         <v>878</v>
       </c>
       <c r="I286" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -10876,7 +10879,7 @@
         <v>878</v>
       </c>
       <c r="I287" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -10902,7 +10905,7 @@
         <v>876</v>
       </c>
       <c r="I288" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -10928,7 +10931,7 @@
         <v>878</v>
       </c>
       <c r="I289" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -10954,7 +10957,7 @@
         <v>876</v>
       </c>
       <c r="I290" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -10977,10 +10980,10 @@
         <v>710</v>
       </c>
       <c r="H291" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="I291" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -11006,7 +11009,7 @@
         <v>880</v>
       </c>
       <c r="I292" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -11032,7 +11035,7 @@
         <v>880</v>
       </c>
       <c r="I293" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -11058,7 +11061,7 @@
         <v>880</v>
       </c>
       <c r="I294" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -11084,7 +11087,7 @@
         <v>881</v>
       </c>
       <c r="I295" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -11110,7 +11113,7 @@
         <v>881</v>
       </c>
       <c r="I296" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -11133,10 +11136,10 @@
         <v>712</v>
       </c>
       <c r="H297" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="I297" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -11162,7 +11165,7 @@
         <v>882</v>
       </c>
       <c r="I298" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -11188,7 +11191,7 @@
         <v>882</v>
       </c>
       <c r="I299" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -11214,7 +11217,7 @@
         <v>883</v>
       </c>
       <c r="I300" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -11237,10 +11240,10 @@
         <v>504</v>
       </c>
       <c r="H301" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="I301" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -11266,7 +11269,7 @@
         <v>880</v>
       </c>
       <c r="I302" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -11292,7 +11295,7 @@
         <v>882</v>
       </c>
       <c r="I303" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -11318,7 +11321,7 @@
         <v>883</v>
       </c>
       <c r="I304" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -11344,7 +11347,7 @@
         <v>883</v>
       </c>
       <c r="I305" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -11370,7 +11373,7 @@
         <v>880</v>
       </c>
       <c r="I306" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -11396,7 +11399,7 @@
         <v>880</v>
       </c>
       <c r="I307" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -11422,7 +11425,7 @@
         <v>882</v>
       </c>
       <c r="I308" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -11448,7 +11451,7 @@
         <v>883</v>
       </c>
       <c r="I309" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -11474,7 +11477,7 @@
         <v>884</v>
       </c>
       <c r="I310" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -11503,7 +11506,7 @@
         <v>884</v>
       </c>
       <c r="I311" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -11532,7 +11535,7 @@
         <v>884</v>
       </c>
       <c r="I312" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -11558,7 +11561,7 @@
         <v>884</v>
       </c>
       <c r="I313" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -11584,7 +11587,7 @@
         <v>884</v>
       </c>
       <c r="I314" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -11610,7 +11613,7 @@
         <v>884</v>
       </c>
       <c r="I315" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -11636,7 +11639,7 @@
         <v>884</v>
       </c>
       <c r="I316" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -11662,7 +11665,7 @@
         <v>885</v>
       </c>
       <c r="I317" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -11688,7 +11691,7 @@
         <v>885</v>
       </c>
       <c r="I318" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -11714,7 +11717,7 @@
         <v>886</v>
       </c>
       <c r="I319" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -11740,7 +11743,7 @@
         <v>886</v>
       </c>
       <c r="I320" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -11766,7 +11769,7 @@
         <v>887</v>
       </c>
       <c r="I321" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -11792,7 +11795,7 @@
         <v>887</v>
       </c>
       <c r="I322" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -11818,7 +11821,7 @@
         <v>887</v>
       </c>
       <c r="I323" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -11844,7 +11847,7 @@
         <v>887</v>
       </c>
       <c r="I324" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -11870,7 +11873,7 @@
         <v>885</v>
       </c>
       <c r="I325" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -11893,10 +11896,10 @@
         <v>496</v>
       </c>
       <c r="H326" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I326" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -11922,7 +11925,7 @@
         <v>886</v>
       </c>
       <c r="I327" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -11948,7 +11951,7 @@
         <v>885</v>
       </c>
       <c r="I328" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -11974,7 +11977,7 @@
         <v>885</v>
       </c>
       <c r="I329" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -12000,7 +12003,7 @@
         <v>887</v>
       </c>
       <c r="I330" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -12023,10 +12026,10 @@
         <v>731</v>
       </c>
       <c r="H331" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="I331" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -12052,7 +12055,7 @@
         <v>877</v>
       </c>
       <c r="I332" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -12078,7 +12081,7 @@
         <v>888</v>
       </c>
       <c r="I333" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -12101,10 +12104,10 @@
         <v>732</v>
       </c>
       <c r="H334" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="I334" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -12130,7 +12133,7 @@
         <v>889</v>
       </c>
       <c r="I335" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -12153,10 +12156,10 @@
         <v>724</v>
       </c>
       <c r="H336" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="I336" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -12179,10 +12182,10 @@
         <v>733</v>
       </c>
       <c r="H337" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="I337" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -12205,10 +12208,10 @@
         <v>734</v>
       </c>
       <c r="H338" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="I338" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -12234,7 +12237,7 @@
         <v>890</v>
       </c>
       <c r="I339" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -12260,7 +12263,7 @@
         <v>890</v>
       </c>
       <c r="I340" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -12283,10 +12286,10 @@
         <v>737</v>
       </c>
       <c r="H341" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="I341" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -12312,7 +12315,7 @@
         <v>891</v>
       </c>
       <c r="I342" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -12338,7 +12341,7 @@
         <v>892</v>
       </c>
       <c r="I343" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -12364,7 +12367,7 @@
         <v>889</v>
       </c>
       <c r="I344" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -12387,10 +12390,10 @@
         <v>719</v>
       </c>
       <c r="H345" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="I345" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -12413,10 +12416,10 @@
         <v>730</v>
       </c>
       <c r="H346" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="I346" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -12442,7 +12445,7 @@
         <v>890</v>
       </c>
       <c r="I347" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -12465,10 +12468,10 @@
         <v>740</v>
       </c>
       <c r="H348" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="I348" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -12491,10 +12494,10 @@
         <v>741</v>
       </c>
       <c r="H349" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="I349" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -12520,7 +12523,7 @@
         <v>820</v>
       </c>
       <c r="I350" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -12546,7 +12549,7 @@
         <v>893</v>
       </c>
       <c r="I351" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -12575,7 +12578,7 @@
         <v>851</v>
       </c>
       <c r="I352" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -12601,7 +12604,7 @@
         <v>894</v>
       </c>
       <c r="I353" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -12627,7 +12630,7 @@
         <v>893</v>
       </c>
       <c r="I354" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -12656,10 +12659,10 @@
         <v>895</v>
       </c>
       <c r="I355" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="J355" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -12685,10 +12688,10 @@
         <v>895</v>
       </c>
       <c r="I356" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="J356" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -12714,7 +12717,7 @@
         <v>881</v>
       </c>
       <c r="I357" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -12740,7 +12743,7 @@
         <v>820</v>
       </c>
       <c r="I358" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -12766,7 +12769,7 @@
         <v>893</v>
       </c>
       <c r="I359" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -12792,7 +12795,7 @@
         <v>851</v>
       </c>
       <c r="I360" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -12818,10 +12821,10 @@
         <v>895</v>
       </c>
       <c r="I361" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="J361" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -12847,7 +12850,7 @@
         <v>896</v>
       </c>
       <c r="I362" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -12873,7 +12876,7 @@
         <v>896</v>
       </c>
       <c r="I363" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -12899,7 +12902,7 @@
         <v>816</v>
       </c>
       <c r="I364" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -12925,7 +12928,7 @@
         <v>816</v>
       </c>
       <c r="I365" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -12951,7 +12954,7 @@
         <v>897</v>
       </c>
       <c r="I366" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -12974,13 +12977,13 @@
         <v>749</v>
       </c>
       <c r="H367" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="I367" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="J367" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -13003,13 +13006,13 @@
         <v>593</v>
       </c>
       <c r="H368" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="I368" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="J368" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -13032,13 +13035,13 @@
         <v>750</v>
       </c>
       <c r="H369" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="I369" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="J369" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -13061,13 +13064,13 @@
         <v>751</v>
       </c>
       <c r="H370" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="I370" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="J370" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -13090,13 +13093,13 @@
         <v>752</v>
       </c>
       <c r="H371" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="I371" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="J371" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -13122,7 +13125,7 @@
         <v>898</v>
       </c>
       <c r="I372" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -13148,7 +13151,7 @@
         <v>898</v>
       </c>
       <c r="I373" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -13174,7 +13177,7 @@
         <v>898</v>
       </c>
       <c r="I374" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -13200,7 +13203,7 @@
         <v>898</v>
       </c>
       <c r="I375" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -13226,7 +13229,7 @@
         <v>899</v>
       </c>
       <c r="I376" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -13252,7 +13255,7 @@
         <v>900</v>
       </c>
       <c r="I377" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -13278,7 +13281,7 @@
         <v>900</v>
       </c>
       <c r="I378" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -13307,7 +13310,7 @@
         <v>901</v>
       </c>
       <c r="I379" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -13336,7 +13339,7 @@
         <v>901</v>
       </c>
       <c r="I380" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -13365,7 +13368,7 @@
         <v>901</v>
       </c>
       <c r="I381" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -13394,7 +13397,7 @@
         <v>901</v>
       </c>
       <c r="I382" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -13417,10 +13420,10 @@
         <v>502</v>
       </c>
       <c r="H383" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="I383" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -13443,10 +13446,10 @@
         <v>723</v>
       </c>
       <c r="H384" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="I384" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -13469,10 +13472,10 @@
         <v>759</v>
       </c>
       <c r="H385" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="I385" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -13495,10 +13498,10 @@
         <v>760</v>
       </c>
       <c r="H386" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="I386" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -13521,10 +13524,10 @@
         <v>655</v>
       </c>
       <c r="H387" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="I387" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -13547,10 +13550,10 @@
         <v>761</v>
       </c>
       <c r="H388" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="I388" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -13573,10 +13576,10 @@
         <v>637</v>
       </c>
       <c r="H389" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="I389" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -13602,7 +13605,7 @@
         <v>902</v>
       </c>
       <c r="I390" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -13628,7 +13631,7 @@
         <v>902</v>
       </c>
       <c r="I391" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -13654,7 +13657,7 @@
         <v>903</v>
       </c>
       <c r="I392" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -13680,7 +13683,7 @@
         <v>903</v>
       </c>
       <c r="I393" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -13706,7 +13709,7 @@
         <v>903</v>
       </c>
       <c r="I394" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -13732,7 +13735,7 @@
         <v>904</v>
       </c>
       <c r="I395" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -13758,7 +13761,7 @@
         <v>905</v>
       </c>
       <c r="I396" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -13784,7 +13787,7 @@
         <v>905</v>
       </c>
       <c r="I397" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -13810,7 +13813,7 @@
         <v>906</v>
       </c>
       <c r="I398" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -13839,7 +13842,7 @@
         <v>907</v>
       </c>
       <c r="I399" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -13865,7 +13868,7 @@
         <v>907</v>
       </c>
       <c r="I400" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -13891,7 +13894,7 @@
         <v>907</v>
       </c>
       <c r="I401" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -13917,7 +13920,7 @@
         <v>907</v>
       </c>
       <c r="I402" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -13943,7 +13946,7 @@
         <v>907</v>
       </c>
       <c r="I403" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -13966,7 +13969,7 @@
         <v>593</v>
       </c>
       <c r="H404" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -13989,7 +13992,7 @@
         <v>768</v>
       </c>
       <c r="H405" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -14012,7 +14015,7 @@
         <v>769</v>
       </c>
       <c r="H406" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -14035,7 +14038,7 @@
         <v>770</v>
       </c>
       <c r="H407" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -14058,7 +14061,7 @@
         <v>771</v>
       </c>
       <c r="H408" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -14084,7 +14087,7 @@
         <v>908</v>
       </c>
       <c r="I409" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -14110,7 +14113,7 @@
         <v>908</v>
       </c>
       <c r="I410" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -14136,7 +14139,7 @@
         <v>908</v>
       </c>
       <c r="I411" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -14162,7 +14165,7 @@
         <v>908</v>
       </c>
       <c r="I412" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -14188,7 +14191,7 @@
         <v>908</v>
       </c>
       <c r="I413" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -14214,7 +14217,7 @@
         <v>909</v>
       </c>
       <c r="I414" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -14237,10 +14240,10 @@
         <v>496</v>
       </c>
       <c r="H415" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="I415" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -14266,7 +14269,7 @@
         <v>879</v>
       </c>
       <c r="I416" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -14292,7 +14295,7 @@
         <v>910</v>
       </c>
       <c r="I417" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -14321,7 +14324,7 @@
         <v>911</v>
       </c>
       <c r="I418" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -14350,7 +14353,7 @@
         <v>911</v>
       </c>
       <c r="I419" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -14379,7 +14382,7 @@
         <v>911</v>
       </c>
       <c r="I420" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -14408,7 +14411,7 @@
         <v>911</v>
       </c>
       <c r="I421" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -14437,7 +14440,7 @@
         <v>911</v>
       </c>
       <c r="I422" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -14466,7 +14469,7 @@
         <v>911</v>
       </c>
       <c r="I423" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -14492,7 +14495,7 @@
         <v>912</v>
       </c>
       <c r="I424" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -14521,7 +14524,7 @@
         <v>913</v>
       </c>
       <c r="I425" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -14550,7 +14553,7 @@
         <v>913</v>
       </c>
       <c r="I426" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -14579,7 +14582,7 @@
         <v>913</v>
       </c>
       <c r="I427" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -14608,7 +14611,7 @@
         <v>913</v>
       </c>
       <c r="I428" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -14637,7 +14640,7 @@
         <v>913</v>
       </c>
       <c r="I429" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -14666,7 +14669,7 @@
         <v>913</v>
       </c>
       <c r="I430" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -14695,7 +14698,7 @@
         <v>913</v>
       </c>
       <c r="I431" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -14724,7 +14727,7 @@
         <v>914</v>
       </c>
       <c r="I432" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -14753,7 +14756,7 @@
         <v>914</v>
       </c>
       <c r="I433" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
@@ -14779,10 +14782,10 @@
         <v>832</v>
       </c>
       <c r="I434" t="s">
+        <v>970</v>
+      </c>
+      <c r="J434" t="s">
         <v>974</v>
-      </c>
-      <c r="J434" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
@@ -14808,10 +14811,10 @@
         <v>832</v>
       </c>
       <c r="I435" t="s">
+        <v>970</v>
+      </c>
+      <c r="J435" t="s">
         <v>974</v>
-      </c>
-      <c r="J435" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -14837,10 +14840,10 @@
         <v>832</v>
       </c>
       <c r="I436" t="s">
+        <v>970</v>
+      </c>
+      <c r="J436" t="s">
         <v>974</v>
-      </c>
-      <c r="J436" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
@@ -14866,10 +14869,10 @@
         <v>832</v>
       </c>
       <c r="I437" t="s">
+        <v>970</v>
+      </c>
+      <c r="J437" t="s">
         <v>974</v>
-      </c>
-      <c r="J437" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
@@ -14895,10 +14898,10 @@
         <v>832</v>
       </c>
       <c r="I438" t="s">
+        <v>970</v>
+      </c>
+      <c r="J438" t="s">
         <v>974</v>
-      </c>
-      <c r="J438" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -14924,10 +14927,10 @@
         <v>832</v>
       </c>
       <c r="I439" t="s">
+        <v>970</v>
+      </c>
+      <c r="J439" t="s">
         <v>974</v>
-      </c>
-      <c r="J439" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
@@ -14950,10 +14953,10 @@
         <v>504</v>
       </c>
       <c r="H440" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="I440" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
@@ -14979,7 +14982,7 @@
         <v>915</v>
       </c>
       <c r="I441" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.3">
@@ -15005,7 +15008,7 @@
         <v>916</v>
       </c>
       <c r="I442" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
@@ -15031,7 +15034,7 @@
         <v>917</v>
       </c>
       <c r="I443" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
@@ -15054,10 +15057,10 @@
         <v>788</v>
       </c>
       <c r="H444" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="I444" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
@@ -15080,10 +15083,10 @@
         <v>789</v>
       </c>
       <c r="H445" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="I445" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
@@ -15106,10 +15109,10 @@
         <v>790</v>
       </c>
       <c r="H446" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="I446" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
@@ -15132,10 +15135,10 @@
         <v>791</v>
       </c>
       <c r="H447" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="I447" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
@@ -15158,10 +15161,10 @@
         <v>792</v>
       </c>
       <c r="H448" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="I448" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
@@ -15184,10 +15187,10 @@
         <v>793</v>
       </c>
       <c r="H449" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="I449" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
@@ -15210,10 +15213,10 @@
         <v>794</v>
       </c>
       <c r="H450" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="I450" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
@@ -15239,7 +15242,7 @@
         <v>918</v>
       </c>
       <c r="I451" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
@@ -15265,7 +15268,7 @@
         <v>918</v>
       </c>
       <c r="I452" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
@@ -15291,7 +15294,7 @@
         <v>918</v>
       </c>
       <c r="I453" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
@@ -15317,7 +15320,7 @@
         <v>918</v>
       </c>
       <c r="I454" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
@@ -15343,7 +15346,7 @@
         <v>918</v>
       </c>
       <c r="I455" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
@@ -15369,7 +15372,7 @@
         <v>918</v>
       </c>
       <c r="I456" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
@@ -15395,7 +15398,7 @@
         <v>919</v>
       </c>
       <c r="I457" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
@@ -15421,7 +15424,7 @@
         <v>919</v>
       </c>
       <c r="I458" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
@@ -15447,7 +15450,7 @@
         <v>919</v>
       </c>
       <c r="I459" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
@@ -15473,7 +15476,7 @@
         <v>920</v>
       </c>
       <c r="I460" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.3">
@@ -15502,7 +15505,7 @@
         <v>921</v>
       </c>
       <c r="I461" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.3">
@@ -15528,7 +15531,7 @@
         <v>921</v>
       </c>
       <c r="I462" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.3">
@@ -15554,7 +15557,7 @@
         <v>921</v>
       </c>
       <c r="I463" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.3">
@@ -15580,7 +15583,7 @@
         <v>921</v>
       </c>
       <c r="I464" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
@@ -15606,7 +15609,7 @@
         <v>922</v>
       </c>
       <c r="I465" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -15632,7 +15635,7 @@
         <v>922</v>
       </c>
       <c r="I466" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -15658,7 +15661,7 @@
         <v>922</v>
       </c>
       <c r="I467" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -15684,7 +15687,7 @@
         <v>923</v>
       </c>
       <c r="I468" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
@@ -15710,7 +15713,7 @@
         <v>924</v>
       </c>
       <c r="I469" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
@@ -15736,7 +15739,7 @@
         <v>924</v>
       </c>
       <c r="I470" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -15759,10 +15762,10 @@
         <v>496</v>
       </c>
       <c r="H471" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="I471" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -15788,7 +15791,7 @@
         <v>925</v>
       </c>
       <c r="I472" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -15814,7 +15817,7 @@
         <v>925</v>
       </c>
       <c r="I473" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -15840,7 +15843,7 @@
         <v>926</v>
       </c>
       <c r="I474" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
@@ -15866,7 +15869,7 @@
         <v>926</v>
       </c>
       <c r="I475" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
@@ -15892,7 +15895,7 @@
         <v>926</v>
       </c>
       <c r="I476" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.3">
@@ -15918,7 +15921,7 @@
         <v>926</v>
       </c>
       <c r="I477" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.3">
@@ -15944,7 +15947,7 @@
         <v>926</v>
       </c>
       <c r="I478" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.3">
@@ -15970,7 +15973,7 @@
         <v>926</v>
       </c>
       <c r="I479" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
@@ -15996,7 +15999,7 @@
         <v>926</v>
       </c>
       <c r="I480" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
@@ -16022,7 +16025,7 @@
         <v>927</v>
       </c>
       <c r="I481" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.3">
@@ -16048,7 +16051,7 @@
         <v>928</v>
       </c>
       <c r="I482" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.3">
@@ -16074,7 +16077,7 @@
         <v>929</v>
       </c>
       <c r="I483" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.3">
@@ -16100,7 +16103,7 @@
         <v>930</v>
       </c>
       <c r="I484" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.3">
@@ -16126,7 +16129,7 @@
         <v>875</v>
       </c>
       <c r="I485" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.3">
@@ -16152,7 +16155,7 @@
         <v>875</v>
       </c>
       <c r="I486" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1921_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1921_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F243FF3F-96F5-4D7E-9D09-D058E4C541A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5E4696-1695-4569-B39D-44A721E85843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2833,9 +2833,6 @@
     <t>bloch_b</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -2845,9 +2842,6 @@
     <t>veraguth_o</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -2902,9 +2896,6 @@
     <t>vonmonakow_p</t>
   </si>
   <si>
-    <t>frey_h</t>
-  </si>
-  <si>
     <t>hess_wr</t>
   </si>
   <si>
@@ -2923,9 +2914,6 @@
     <t>schinz_h</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>meyer_k</t>
   </si>
   <si>
@@ -2999,6 +2987,18 @@
   </si>
   <si>
     <t>nager_fr</t>
+  </si>
+  <si>
+    <t>frey_h2</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3034,11 +3034,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3342,11 +3345,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="D152" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="25.21875" customWidth="1"/>
@@ -3377,7 +3380,7 @@
         <v>811</v>
       </c>
       <c r="I1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3403,7 +3406,7 @@
         <v>812</v>
       </c>
       <c r="I2" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3429,7 +3432,7 @@
         <v>812</v>
       </c>
       <c r="I3" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3452,10 +3455,10 @@
         <v>493</v>
       </c>
       <c r="H4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I4" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3481,7 +3484,7 @@
         <v>811</v>
       </c>
       <c r="I5" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3504,10 +3507,10 @@
         <v>495</v>
       </c>
       <c r="H6" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I6" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3530,10 +3533,10 @@
         <v>496</v>
       </c>
       <c r="H7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I7" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3559,7 +3562,7 @@
         <v>814</v>
       </c>
       <c r="I8" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3585,7 +3588,7 @@
         <v>815</v>
       </c>
       <c r="I9" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3608,13 +3611,13 @@
         <v>499</v>
       </c>
       <c r="H10" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I10" t="s">
+        <v>966</v>
+      </c>
+      <c r="J10" t="s">
         <v>970</v>
-      </c>
-      <c r="J10" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3640,7 +3643,7 @@
         <v>814</v>
       </c>
       <c r="I11" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3663,10 +3666,10 @@
         <v>501</v>
       </c>
       <c r="H12" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I12" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3692,7 +3695,7 @@
         <v>813</v>
       </c>
       <c r="I13" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -3718,7 +3721,7 @@
         <v>813</v>
       </c>
       <c r="I14" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -3744,7 +3747,7 @@
         <v>813</v>
       </c>
       <c r="I15" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3767,10 +3770,10 @@
         <v>505</v>
       </c>
       <c r="H16" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I16" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3793,10 +3796,10 @@
         <v>506</v>
       </c>
       <c r="H17" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I17" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3822,7 +3825,7 @@
         <v>812</v>
       </c>
       <c r="I18" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3845,13 +3848,13 @@
         <v>508</v>
       </c>
       <c r="H19" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I19" t="s">
+        <v>966</v>
+      </c>
+      <c r="J19" t="s">
         <v>970</v>
-      </c>
-      <c r="J19" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3877,7 +3880,7 @@
         <v>811</v>
       </c>
       <c r="I20" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3903,7 +3906,7 @@
         <v>814</v>
       </c>
       <c r="I21" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3926,13 +3929,13 @@
         <v>511</v>
       </c>
       <c r="H22" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I22" t="s">
+        <v>966</v>
+      </c>
+      <c r="J22" t="s">
         <v>970</v>
-      </c>
-      <c r="J22" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3958,7 +3961,7 @@
         <v>813</v>
       </c>
       <c r="I23" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3981,10 +3984,10 @@
         <v>496</v>
       </c>
       <c r="H24" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I24" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4007,13 +4010,13 @@
         <v>513</v>
       </c>
       <c r="H25" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I25" t="s">
+        <v>966</v>
+      </c>
+      <c r="J25" t="s">
         <v>970</v>
-      </c>
-      <c r="J25" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4039,7 +4042,7 @@
         <v>812</v>
       </c>
       <c r="I26" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4065,7 +4068,7 @@
         <v>816</v>
       </c>
       <c r="I27" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4091,7 +4094,7 @@
         <v>817</v>
       </c>
       <c r="I28" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4114,10 +4117,10 @@
         <v>517</v>
       </c>
       <c r="H29" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I29" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4143,7 +4146,7 @@
         <v>818</v>
       </c>
       <c r="I30" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4169,7 +4172,7 @@
         <v>819</v>
       </c>
       <c r="I31" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -4195,7 +4198,7 @@
         <v>818</v>
       </c>
       <c r="I32" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -4218,10 +4221,10 @@
         <v>521</v>
       </c>
       <c r="H33" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I33" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -4244,10 +4247,10 @@
         <v>522</v>
       </c>
       <c r="H34" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="I34" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -4273,7 +4276,7 @@
         <v>819</v>
       </c>
       <c r="I35" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -4299,7 +4302,7 @@
         <v>818</v>
       </c>
       <c r="I36" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -4325,7 +4328,7 @@
         <v>821</v>
       </c>
       <c r="I37" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -4351,7 +4354,7 @@
         <v>822</v>
       </c>
       <c r="I38" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -4377,7 +4380,7 @@
         <v>821</v>
       </c>
       <c r="I39" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -4403,7 +4406,7 @@
         <v>822</v>
       </c>
       <c r="I40" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -4429,7 +4432,7 @@
         <v>823</v>
       </c>
       <c r="I41" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -4452,10 +4455,10 @@
         <v>529</v>
       </c>
       <c r="H42" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I42" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -4478,10 +4481,10 @@
         <v>530</v>
       </c>
       <c r="H43" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="I43" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -4507,7 +4510,7 @@
         <v>825</v>
       </c>
       <c r="I44" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -4533,7 +4536,7 @@
         <v>825</v>
       </c>
       <c r="I45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -4559,7 +4562,7 @@
         <v>931</v>
       </c>
       <c r="I46" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -4585,7 +4588,7 @@
         <v>826</v>
       </c>
       <c r="I47" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -4611,7 +4614,7 @@
         <v>827</v>
       </c>
       <c r="I48" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -4637,7 +4640,7 @@
         <v>828</v>
       </c>
       <c r="I49" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -4663,7 +4666,7 @@
         <v>829</v>
       </c>
       <c r="I50" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -4689,7 +4692,7 @@
         <v>931</v>
       </c>
       <c r="I51" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -4715,7 +4718,7 @@
         <v>830</v>
       </c>
       <c r="I52" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -4741,7 +4744,7 @@
         <v>931</v>
       </c>
       <c r="I53" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -4767,10 +4770,10 @@
         <v>831</v>
       </c>
       <c r="I54" t="s">
+        <v>966</v>
+      </c>
+      <c r="J54" t="s">
         <v>970</v>
-      </c>
-      <c r="J54" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -4796,7 +4799,7 @@
         <v>832</v>
       </c>
       <c r="I55" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -4822,7 +4825,7 @@
         <v>932</v>
       </c>
       <c r="I56" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -4848,7 +4851,7 @@
         <v>834</v>
       </c>
       <c r="I57" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -4874,7 +4877,7 @@
         <v>835</v>
       </c>
       <c r="I58" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -4900,7 +4903,7 @@
         <v>835</v>
       </c>
       <c r="I59" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -4923,10 +4926,10 @@
         <v>544</v>
       </c>
       <c r="H60" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I60" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -4952,7 +4955,7 @@
         <v>825</v>
       </c>
       <c r="I61" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -4978,7 +4981,7 @@
         <v>818</v>
       </c>
       <c r="I62" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5004,7 +5007,7 @@
         <v>819</v>
       </c>
       <c r="I63" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5030,7 +5033,7 @@
         <v>822</v>
       </c>
       <c r="I64" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -5053,10 +5056,10 @@
         <v>548</v>
       </c>
       <c r="H65" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="I65" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -5082,7 +5085,7 @@
         <v>821</v>
       </c>
       <c r="I66" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -5108,7 +5111,7 @@
         <v>823</v>
       </c>
       <c r="I67" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -5128,10 +5131,10 @@
         <v>76</v>
       </c>
       <c r="H68" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I68" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -5157,7 +5160,7 @@
         <v>829</v>
       </c>
       <c r="I69" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -5183,7 +5186,7 @@
         <v>829</v>
       </c>
       <c r="I70" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -5209,10 +5212,10 @@
         <v>831</v>
       </c>
       <c r="I71" t="s">
+        <v>966</v>
+      </c>
+      <c r="J71" t="s">
         <v>970</v>
-      </c>
-      <c r="J71" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -5238,10 +5241,10 @@
         <v>831</v>
       </c>
       <c r="I72" t="s">
+        <v>966</v>
+      </c>
+      <c r="J72" t="s">
         <v>970</v>
-      </c>
-      <c r="J72" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -5267,7 +5270,7 @@
         <v>932</v>
       </c>
       <c r="I73" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -5293,7 +5296,7 @@
         <v>828</v>
       </c>
       <c r="I74" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -5319,7 +5322,7 @@
         <v>931</v>
       </c>
       <c r="I75" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -5345,7 +5348,7 @@
         <v>830</v>
       </c>
       <c r="I76" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -5371,7 +5374,7 @@
         <v>832</v>
       </c>
       <c r="I77" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -5397,7 +5400,7 @@
         <v>932</v>
       </c>
       <c r="I78" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -5423,7 +5426,7 @@
         <v>835</v>
       </c>
       <c r="I79" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -5449,7 +5452,7 @@
         <v>835</v>
       </c>
       <c r="I80" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -5475,7 +5478,7 @@
         <v>835</v>
       </c>
       <c r="I81" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -5501,7 +5504,7 @@
         <v>836</v>
       </c>
       <c r="I82" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -5524,10 +5527,10 @@
         <v>560</v>
       </c>
       <c r="H83" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="I83" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -5556,7 +5559,7 @@
         <v>837</v>
       </c>
       <c r="I84" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -5582,7 +5585,7 @@
         <v>837</v>
       </c>
       <c r="I85" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -5608,7 +5611,7 @@
         <v>837</v>
       </c>
       <c r="I86" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -5634,7 +5637,7 @@
         <v>837</v>
       </c>
       <c r="I87" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -5660,7 +5663,7 @@
         <v>837</v>
       </c>
       <c r="I88" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -5689,7 +5692,7 @@
         <v>838</v>
       </c>
       <c r="I89" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -5712,10 +5715,10 @@
         <v>567</v>
       </c>
       <c r="H90" t="s">
-        <v>960</v>
+        <v>989</v>
       </c>
       <c r="I90" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -5738,10 +5741,10 @@
         <v>568</v>
       </c>
       <c r="H91" t="s">
+        <v>991</v>
+      </c>
+      <c r="I91" t="s">
         <v>967</v>
-      </c>
-      <c r="I91" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -5764,10 +5767,10 @@
         <v>528</v>
       </c>
       <c r="H92" t="s">
+        <v>991</v>
+      </c>
+      <c r="I92" t="s">
         <v>967</v>
-      </c>
-      <c r="I92" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -5790,10 +5793,10 @@
         <v>569</v>
       </c>
       <c r="H93" t="s">
+        <v>991</v>
+      </c>
+      <c r="I93" t="s">
         <v>967</v>
-      </c>
-      <c r="I93" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -5816,10 +5819,10 @@
         <v>570</v>
       </c>
       <c r="H94" t="s">
+        <v>991</v>
+      </c>
+      <c r="I94" t="s">
         <v>967</v>
-      </c>
-      <c r="I94" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -5845,7 +5848,7 @@
         <v>839</v>
       </c>
       <c r="I95" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -5868,10 +5871,10 @@
         <v>572</v>
       </c>
       <c r="H96" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I96" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -5894,10 +5897,10 @@
         <v>573</v>
       </c>
       <c r="H97" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I97" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -5920,10 +5923,10 @@
         <v>574</v>
       </c>
       <c r="H98" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I98" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -5949,7 +5952,7 @@
         <v>933</v>
       </c>
       <c r="I99" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -5975,7 +5978,7 @@
         <v>933</v>
       </c>
       <c r="I100" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -6001,7 +6004,7 @@
         <v>841</v>
       </c>
       <c r="I101" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -6027,7 +6030,7 @@
         <v>841</v>
       </c>
       <c r="I102" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -6053,7 +6056,7 @@
         <v>841</v>
       </c>
       <c r="I103" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -6079,7 +6082,7 @@
         <v>841</v>
       </c>
       <c r="I104" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -6105,7 +6108,7 @@
         <v>841</v>
       </c>
       <c r="I105" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -6131,7 +6134,7 @@
         <v>934</v>
       </c>
       <c r="I106" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -6157,13 +6160,13 @@
         <v>934</v>
       </c>
       <c r="I107" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="K107" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="L107" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -6189,7 +6192,7 @@
         <v>934</v>
       </c>
       <c r="I108" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -6215,7 +6218,7 @@
         <v>842</v>
       </c>
       <c r="I109" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -6241,7 +6244,7 @@
         <v>842</v>
       </c>
       <c r="I110" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -6267,7 +6270,7 @@
         <v>842</v>
       </c>
       <c r="I111" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -6293,7 +6296,7 @@
         <v>935</v>
       </c>
       <c r="I112" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -6319,7 +6322,7 @@
         <v>935</v>
       </c>
       <c r="I113" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -6345,10 +6348,10 @@
         <v>936</v>
       </c>
       <c r="I114" t="s">
+        <v>966</v>
+      </c>
+      <c r="J114" t="s">
         <v>970</v>
-      </c>
-      <c r="J114" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -6374,10 +6377,10 @@
         <v>936</v>
       </c>
       <c r="I115" t="s">
+        <v>966</v>
+      </c>
+      <c r="J115" t="s">
         <v>970</v>
-      </c>
-      <c r="J115" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -6403,10 +6406,10 @@
         <v>936</v>
       </c>
       <c r="I116" t="s">
+        <v>966</v>
+      </c>
+      <c r="J116" t="s">
         <v>970</v>
-      </c>
-      <c r="J116" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -6429,10 +6432,10 @@
         <v>592</v>
       </c>
       <c r="H117" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="I117" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -6458,7 +6461,7 @@
         <v>843</v>
       </c>
       <c r="I118" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -6484,7 +6487,7 @@
         <v>843</v>
       </c>
       <c r="I119" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -6510,7 +6513,7 @@
         <v>844</v>
       </c>
       <c r="I120" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -6536,7 +6539,7 @@
         <v>844</v>
       </c>
       <c r="I121" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -6562,7 +6565,7 @@
         <v>844</v>
       </c>
       <c r="I122" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -6588,7 +6591,7 @@
         <v>845</v>
       </c>
       <c r="I123" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -6614,7 +6617,7 @@
         <v>845</v>
       </c>
       <c r="I124" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -6640,7 +6643,7 @@
         <v>845</v>
       </c>
       <c r="I125" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -6666,7 +6669,7 @@
         <v>846</v>
       </c>
       <c r="I126" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -6689,10 +6692,10 @@
         <v>504</v>
       </c>
       <c r="H127" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I127" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -6715,10 +6718,10 @@
         <v>504</v>
       </c>
       <c r="H128" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I128" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -6744,7 +6747,7 @@
         <v>847</v>
       </c>
       <c r="I129" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -6770,7 +6773,7 @@
         <v>847</v>
       </c>
       <c r="I130" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -6796,7 +6799,7 @@
         <v>847</v>
       </c>
       <c r="I131" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -6822,7 +6825,7 @@
         <v>848</v>
       </c>
       <c r="I132" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -6848,7 +6851,7 @@
         <v>849</v>
       </c>
       <c r="I133" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -6874,7 +6877,7 @@
         <v>849</v>
       </c>
       <c r="I134" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -6900,7 +6903,7 @@
         <v>849</v>
       </c>
       <c r="I135" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -6926,7 +6929,7 @@
         <v>850</v>
       </c>
       <c r="I136" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -6949,10 +6952,10 @@
         <v>603</v>
       </c>
       <c r="H137" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="I137" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -6978,7 +6981,7 @@
         <v>852</v>
       </c>
       <c r="I138" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -7004,7 +7007,7 @@
         <v>853</v>
       </c>
       <c r="I139" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -7030,7 +7033,7 @@
         <v>853</v>
       </c>
       <c r="I140" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -7056,7 +7059,7 @@
         <v>854</v>
       </c>
       <c r="I141" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -7082,7 +7085,7 @@
         <v>854</v>
       </c>
       <c r="I142" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -7105,10 +7108,10 @@
         <v>608</v>
       </c>
       <c r="H143" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="I143" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -7131,10 +7134,10 @@
         <v>609</v>
       </c>
       <c r="H144" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="I144" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -7156,11 +7159,11 @@
       <c r="G145" t="s">
         <v>610</v>
       </c>
-      <c r="H145" t="s">
-        <v>937</v>
+      <c r="H145" s="1" t="s">
+        <v>990</v>
       </c>
       <c r="I145" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -7182,11 +7185,11 @@
       <c r="G146" t="s">
         <v>611</v>
       </c>
-      <c r="H146" t="s">
-        <v>937</v>
+      <c r="H146" s="1" t="s">
+        <v>990</v>
       </c>
       <c r="I146" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -7209,10 +7212,10 @@
         <v>612</v>
       </c>
       <c r="H147" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I147" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -7235,10 +7238,10 @@
         <v>509</v>
       </c>
       <c r="H148" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="I148" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -7261,10 +7264,10 @@
         <v>545</v>
       </c>
       <c r="H149" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="I149" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -7287,10 +7290,10 @@
         <v>613</v>
       </c>
       <c r="H150" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I150" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -7313,10 +7316,10 @@
         <v>614</v>
       </c>
       <c r="H151" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I151" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -7339,10 +7342,10 @@
         <v>615</v>
       </c>
       <c r="H152" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I152" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -7368,7 +7371,7 @@
         <v>855</v>
       </c>
       <c r="I153" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -7394,7 +7397,7 @@
         <v>855</v>
       </c>
       <c r="I154" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -7420,7 +7423,7 @@
         <v>833</v>
       </c>
       <c r="I155" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -7446,7 +7449,7 @@
         <v>833</v>
       </c>
       <c r="I156" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -7469,10 +7472,10 @@
         <v>553</v>
       </c>
       <c r="H157" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I157" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -7495,10 +7498,10 @@
         <v>620</v>
       </c>
       <c r="H158" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I158" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -7521,10 +7524,10 @@
         <v>621</v>
       </c>
       <c r="H159" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I159" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -7547,10 +7550,10 @@
         <v>622</v>
       </c>
       <c r="H160" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I160" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -7573,10 +7576,10 @@
         <v>623</v>
       </c>
       <c r="H161" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I161" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -7599,10 +7602,10 @@
         <v>587</v>
       </c>
       <c r="H162" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I162" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -7625,10 +7628,10 @@
         <v>624</v>
       </c>
       <c r="H163" t="s">
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="I163" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -7651,10 +7654,10 @@
         <v>625</v>
       </c>
       <c r="H164" t="s">
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="I164" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -7677,10 +7680,10 @@
         <v>626</v>
       </c>
       <c r="H165" t="s">
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="I165" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -7703,10 +7706,10 @@
         <v>627</v>
       </c>
       <c r="H166" t="s">
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="I166" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -7729,10 +7732,10 @@
         <v>628</v>
       </c>
       <c r="H167" t="s">
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="I167" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -7758,7 +7761,7 @@
         <v>856</v>
       </c>
       <c r="I168" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -7784,7 +7787,7 @@
         <v>856</v>
       </c>
       <c r="I169" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -7810,7 +7813,7 @@
         <v>856</v>
       </c>
       <c r="I170" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -7836,7 +7839,7 @@
         <v>856</v>
       </c>
       <c r="I171" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -7862,7 +7865,7 @@
         <v>856</v>
       </c>
       <c r="I172" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -7885,10 +7888,10 @@
         <v>633</v>
       </c>
       <c r="H173" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="I173" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -7911,10 +7914,10 @@
         <v>634</v>
       </c>
       <c r="H174" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="I174" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -7937,10 +7940,10 @@
         <v>635</v>
       </c>
       <c r="H175" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="I175" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -7966,7 +7969,7 @@
         <v>857</v>
       </c>
       <c r="I176" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -7989,10 +7992,10 @@
         <v>637</v>
       </c>
       <c r="H177" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="I177" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -8015,10 +8018,10 @@
         <v>504</v>
       </c>
       <c r="H178" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="I178" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -8044,7 +8047,7 @@
         <v>858</v>
       </c>
       <c r="I179" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -8070,7 +8073,7 @@
         <v>858</v>
       </c>
       <c r="I180" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -8096,7 +8099,7 @@
         <v>858</v>
       </c>
       <c r="I181" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -8122,7 +8125,7 @@
         <v>859</v>
       </c>
       <c r="I182" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -8148,7 +8151,7 @@
         <v>859</v>
       </c>
       <c r="I183" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -8174,7 +8177,7 @@
         <v>859</v>
       </c>
       <c r="I184" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -8197,10 +8200,10 @@
         <v>642</v>
       </c>
       <c r="H185" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="I185" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -8223,10 +8226,10 @@
         <v>643</v>
       </c>
       <c r="H186" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="I186" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -8249,10 +8252,10 @@
         <v>515</v>
       </c>
       <c r="H187" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="I187" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -8275,10 +8278,10 @@
         <v>644</v>
       </c>
       <c r="H188" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="I188" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -8301,10 +8304,10 @@
         <v>645</v>
       </c>
       <c r="H189" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="I189" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -8327,10 +8330,10 @@
         <v>646</v>
       </c>
       <c r="H190" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I190" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -8353,10 +8356,10 @@
         <v>647</v>
       </c>
       <c r="H191" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I191" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -8379,10 +8382,10 @@
         <v>648</v>
       </c>
       <c r="H192" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I192" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -8405,10 +8408,10 @@
         <v>649</v>
       </c>
       <c r="H193" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I193" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -8434,7 +8437,7 @@
         <v>860</v>
       </c>
       <c r="I194" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -8460,13 +8463,13 @@
         <v>860</v>
       </c>
       <c r="I195" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="K195" t="s">
         <v>861</v>
       </c>
       <c r="L195" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -8492,7 +8495,7 @@
         <v>860</v>
       </c>
       <c r="I196" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -8518,7 +8521,7 @@
         <v>860</v>
       </c>
       <c r="I197" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -8544,13 +8547,13 @@
         <v>860</v>
       </c>
       <c r="I198" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="K198" t="s">
         <v>861</v>
       </c>
       <c r="L198" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -8576,7 +8579,7 @@
         <v>860</v>
       </c>
       <c r="I199" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -8602,7 +8605,7 @@
         <v>860</v>
       </c>
       <c r="I200" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -8628,7 +8631,7 @@
         <v>861</v>
       </c>
       <c r="I201" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -8654,7 +8657,7 @@
         <v>861</v>
       </c>
       <c r="I202" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -8680,7 +8683,7 @@
         <v>861</v>
       </c>
       <c r="I203" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -8706,7 +8709,7 @@
         <v>861</v>
       </c>
       <c r="I204" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -8732,7 +8735,7 @@
         <v>861</v>
       </c>
       <c r="I205" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -8758,7 +8761,7 @@
         <v>862</v>
       </c>
       <c r="I206" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -8784,7 +8787,7 @@
         <v>862</v>
       </c>
       <c r="I207" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -8810,7 +8813,7 @@
         <v>862</v>
       </c>
       <c r="I208" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -8836,7 +8839,7 @@
         <v>862</v>
       </c>
       <c r="I209" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -8862,7 +8865,7 @@
         <v>862</v>
       </c>
       <c r="I210" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -8888,7 +8891,7 @@
         <v>862</v>
       </c>
       <c r="I211" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -8914,7 +8917,7 @@
         <v>862</v>
       </c>
       <c r="I212" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -8940,7 +8943,7 @@
         <v>824</v>
       </c>
       <c r="I213" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -8966,7 +8969,7 @@
         <v>863</v>
       </c>
       <c r="I214" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -8992,7 +8995,7 @@
         <v>863</v>
       </c>
       <c r="I215" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -9018,7 +9021,7 @@
         <v>863</v>
       </c>
       <c r="I216" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -9044,10 +9047,10 @@
         <v>864</v>
       </c>
       <c r="I217" t="s">
+        <v>966</v>
+      </c>
+      <c r="J217" t="s">
         <v>970</v>
-      </c>
-      <c r="J217" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -9073,10 +9076,10 @@
         <v>864</v>
       </c>
       <c r="I218" t="s">
+        <v>966</v>
+      </c>
+      <c r="J218" t="s">
         <v>970</v>
-      </c>
-      <c r="J218" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -9102,10 +9105,10 @@
         <v>864</v>
       </c>
       <c r="I219" t="s">
+        <v>966</v>
+      </c>
+      <c r="J219" t="s">
         <v>970</v>
-      </c>
-      <c r="J219" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -9131,10 +9134,10 @@
         <v>864</v>
       </c>
       <c r="I220" t="s">
+        <v>966</v>
+      </c>
+      <c r="J220" t="s">
         <v>970</v>
-      </c>
-      <c r="J220" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -9160,10 +9163,10 @@
         <v>864</v>
       </c>
       <c r="I221" t="s">
+        <v>966</v>
+      </c>
+      <c r="J221" t="s">
         <v>970</v>
-      </c>
-      <c r="J221" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -9186,10 +9189,10 @@
         <v>546</v>
       </c>
       <c r="H222" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I222" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -9212,10 +9215,10 @@
         <v>672</v>
       </c>
       <c r="H223" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I223" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -9238,10 +9241,10 @@
         <v>673</v>
       </c>
       <c r="H224" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I224" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -9267,7 +9270,7 @@
         <v>865</v>
       </c>
       <c r="I225" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -9293,7 +9296,7 @@
         <v>865</v>
       </c>
       <c r="I226" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -9319,7 +9322,7 @@
         <v>865</v>
       </c>
       <c r="I227" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -9345,7 +9348,7 @@
         <v>865</v>
       </c>
       <c r="I228" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -9371,7 +9374,7 @@
         <v>865</v>
       </c>
       <c r="I229" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -9397,7 +9400,7 @@
         <v>866</v>
       </c>
       <c r="I230" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -9423,7 +9426,7 @@
         <v>867</v>
       </c>
       <c r="I231" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -9449,7 +9452,7 @@
         <v>867</v>
       </c>
       <c r="I232" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -9475,7 +9478,7 @@
         <v>867</v>
       </c>
       <c r="I233" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -9501,7 +9504,7 @@
         <v>868</v>
       </c>
       <c r="I234" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -9527,7 +9530,7 @@
         <v>869</v>
       </c>
       <c r="I235" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -9553,7 +9556,7 @@
         <v>869</v>
       </c>
       <c r="I236" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -9579,7 +9582,7 @@
         <v>870</v>
       </c>
       <c r="I237" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -9605,7 +9608,7 @@
         <v>870</v>
       </c>
       <c r="I238" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -9631,7 +9634,7 @@
         <v>868</v>
       </c>
       <c r="I239" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -9657,7 +9660,7 @@
         <v>871</v>
       </c>
       <c r="I240" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -9683,7 +9686,7 @@
         <v>871</v>
       </c>
       <c r="I241" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -9709,7 +9712,7 @@
         <v>871</v>
       </c>
       <c r="I242" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -9735,7 +9738,7 @@
         <v>871</v>
       </c>
       <c r="I243" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -9758,10 +9761,10 @@
         <v>689</v>
       </c>
       <c r="H244" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I244" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -9784,10 +9787,10 @@
         <v>690</v>
       </c>
       <c r="H245" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I245" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -9813,7 +9816,7 @@
         <v>872</v>
       </c>
       <c r="I246" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -9839,7 +9842,7 @@
         <v>872</v>
       </c>
       <c r="I247" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -9865,7 +9868,7 @@
         <v>869</v>
       </c>
       <c r="I248" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -9891,7 +9894,7 @@
         <v>871</v>
       </c>
       <c r="I249" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -9914,10 +9917,10 @@
         <v>495</v>
       </c>
       <c r="H250" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I250" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -9943,7 +9946,7 @@
         <v>868</v>
       </c>
       <c r="I251" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -9966,10 +9969,10 @@
         <v>693</v>
       </c>
       <c r="H252" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I252" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -9995,7 +9998,7 @@
         <v>870</v>
       </c>
       <c r="I253" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -10021,7 +10024,7 @@
         <v>868</v>
       </c>
       <c r="I254" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -10047,7 +10050,7 @@
         <v>868</v>
       </c>
       <c r="I255" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -10070,10 +10073,10 @@
         <v>603</v>
       </c>
       <c r="H256" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I256" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -10099,7 +10102,7 @@
         <v>873</v>
       </c>
       <c r="I257" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -10125,7 +10128,7 @@
         <v>874</v>
       </c>
       <c r="I258" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -10151,7 +10154,7 @@
         <v>875</v>
       </c>
       <c r="I259" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -10177,7 +10180,7 @@
         <v>875</v>
       </c>
       <c r="I260" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -10203,7 +10206,7 @@
         <v>875</v>
       </c>
       <c r="I261" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -10229,7 +10232,7 @@
         <v>875</v>
       </c>
       <c r="I262" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -10255,7 +10258,7 @@
         <v>875</v>
       </c>
       <c r="I263" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -10281,7 +10284,7 @@
         <v>816</v>
       </c>
       <c r="I264" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -10307,7 +10310,7 @@
         <v>876</v>
       </c>
       <c r="I265" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -10333,7 +10336,7 @@
         <v>876</v>
       </c>
       <c r="I266" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -10359,7 +10362,7 @@
         <v>816</v>
       </c>
       <c r="I267" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -10385,7 +10388,7 @@
         <v>816</v>
       </c>
       <c r="I268" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -10411,7 +10414,7 @@
         <v>876</v>
       </c>
       <c r="I269" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -10437,7 +10440,7 @@
         <v>840</v>
       </c>
       <c r="I270" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -10463,7 +10466,7 @@
         <v>811</v>
       </c>
       <c r="I271" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -10489,7 +10492,7 @@
         <v>840</v>
       </c>
       <c r="I272" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -10515,7 +10518,7 @@
         <v>877</v>
       </c>
       <c r="I273" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -10541,7 +10544,7 @@
         <v>877</v>
       </c>
       <c r="I274" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -10567,7 +10570,7 @@
         <v>840</v>
       </c>
       <c r="I275" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -10593,7 +10596,7 @@
         <v>877</v>
       </c>
       <c r="I276" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -10619,7 +10622,7 @@
         <v>877</v>
       </c>
       <c r="I277" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -10645,7 +10648,7 @@
         <v>876</v>
       </c>
       <c r="I278" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -10668,10 +10671,10 @@
         <v>496</v>
       </c>
       <c r="H279" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="I279" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -10697,7 +10700,7 @@
         <v>876</v>
       </c>
       <c r="I280" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -10723,7 +10726,7 @@
         <v>878</v>
       </c>
       <c r="I281" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -10749,7 +10752,7 @@
         <v>878</v>
       </c>
       <c r="I282" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -10772,10 +10775,10 @@
         <v>496</v>
       </c>
       <c r="H283" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="I283" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -10798,10 +10801,10 @@
         <v>516</v>
       </c>
       <c r="H284" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I284" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -10824,10 +10827,10 @@
         <v>658</v>
       </c>
       <c r="H285" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I285" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -10853,7 +10856,7 @@
         <v>878</v>
       </c>
       <c r="I286" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -10879,7 +10882,7 @@
         <v>878</v>
       </c>
       <c r="I287" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -10905,7 +10908,7 @@
         <v>876</v>
       </c>
       <c r="I288" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -10931,7 +10934,7 @@
         <v>878</v>
       </c>
       <c r="I289" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -10957,7 +10960,7 @@
         <v>876</v>
       </c>
       <c r="I290" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -10980,10 +10983,10 @@
         <v>710</v>
       </c>
       <c r="H291" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I291" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -11009,7 +11012,7 @@
         <v>880</v>
       </c>
       <c r="I292" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -11035,7 +11038,7 @@
         <v>880</v>
       </c>
       <c r="I293" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -11061,7 +11064,7 @@
         <v>880</v>
       </c>
       <c r="I294" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -11087,7 +11090,7 @@
         <v>881</v>
       </c>
       <c r="I295" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -11113,7 +11116,7 @@
         <v>881</v>
       </c>
       <c r="I296" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -11136,10 +11139,10 @@
         <v>712</v>
       </c>
       <c r="H297" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I297" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -11165,7 +11168,7 @@
         <v>882</v>
       </c>
       <c r="I298" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -11191,7 +11194,7 @@
         <v>882</v>
       </c>
       <c r="I299" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -11217,7 +11220,7 @@
         <v>883</v>
       </c>
       <c r="I300" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -11240,10 +11243,10 @@
         <v>504</v>
       </c>
       <c r="H301" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I301" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -11269,7 +11272,7 @@
         <v>880</v>
       </c>
       <c r="I302" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -11295,7 +11298,7 @@
         <v>882</v>
       </c>
       <c r="I303" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -11321,7 +11324,7 @@
         <v>883</v>
       </c>
       <c r="I304" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -11347,7 +11350,7 @@
         <v>883</v>
       </c>
       <c r="I305" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -11373,7 +11376,7 @@
         <v>880</v>
       </c>
       <c r="I306" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -11399,7 +11402,7 @@
         <v>880</v>
       </c>
       <c r="I307" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -11425,7 +11428,7 @@
         <v>882</v>
       </c>
       <c r="I308" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -11451,7 +11454,7 @@
         <v>883</v>
       </c>
       <c r="I309" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -11477,7 +11480,7 @@
         <v>884</v>
       </c>
       <c r="I310" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -11506,7 +11509,7 @@
         <v>884</v>
       </c>
       <c r="I311" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -11535,7 +11538,7 @@
         <v>884</v>
       </c>
       <c r="I312" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -11561,7 +11564,7 @@
         <v>884</v>
       </c>
       <c r="I313" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -11587,7 +11590,7 @@
         <v>884</v>
       </c>
       <c r="I314" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -11613,7 +11616,7 @@
         <v>884</v>
       </c>
       <c r="I315" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -11639,7 +11642,7 @@
         <v>884</v>
       </c>
       <c r="I316" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -11665,7 +11668,7 @@
         <v>885</v>
       </c>
       <c r="I317" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -11691,7 +11694,7 @@
         <v>885</v>
       </c>
       <c r="I318" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -11717,7 +11720,7 @@
         <v>886</v>
       </c>
       <c r="I319" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -11743,7 +11746,7 @@
         <v>886</v>
       </c>
       <c r="I320" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -11769,7 +11772,7 @@
         <v>887</v>
       </c>
       <c r="I321" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -11795,7 +11798,7 @@
         <v>887</v>
       </c>
       <c r="I322" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -11821,7 +11824,7 @@
         <v>887</v>
       </c>
       <c r="I323" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -11847,7 +11850,7 @@
         <v>887</v>
       </c>
       <c r="I324" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -11873,7 +11876,7 @@
         <v>885</v>
       </c>
       <c r="I325" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -11896,10 +11899,10 @@
         <v>496</v>
       </c>
       <c r="H326" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="I326" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -11925,7 +11928,7 @@
         <v>886</v>
       </c>
       <c r="I327" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -11951,7 +11954,7 @@
         <v>885</v>
       </c>
       <c r="I328" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -11977,7 +11980,7 @@
         <v>885</v>
       </c>
       <c r="I329" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -12003,7 +12006,7 @@
         <v>887</v>
       </c>
       <c r="I330" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -12026,10 +12029,10 @@
         <v>731</v>
       </c>
       <c r="H331" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="I331" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -12055,7 +12058,7 @@
         <v>877</v>
       </c>
       <c r="I332" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -12081,7 +12084,7 @@
         <v>888</v>
       </c>
       <c r="I333" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -12104,10 +12107,10 @@
         <v>732</v>
       </c>
       <c r="H334" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="I334" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -12133,7 +12136,7 @@
         <v>889</v>
       </c>
       <c r="I335" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -12156,10 +12159,10 @@
         <v>724</v>
       </c>
       <c r="H336" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I336" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -12182,10 +12185,10 @@
         <v>733</v>
       </c>
       <c r="H337" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I337" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -12208,10 +12211,10 @@
         <v>734</v>
       </c>
       <c r="H338" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I338" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -12237,7 +12240,7 @@
         <v>890</v>
       </c>
       <c r="I339" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -12263,7 +12266,7 @@
         <v>890</v>
       </c>
       <c r="I340" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -12286,10 +12289,10 @@
         <v>737</v>
       </c>
       <c r="H341" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I341" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -12315,7 +12318,7 @@
         <v>891</v>
       </c>
       <c r="I342" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -12341,7 +12344,7 @@
         <v>892</v>
       </c>
       <c r="I343" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -12367,7 +12370,7 @@
         <v>889</v>
       </c>
       <c r="I344" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -12390,10 +12393,10 @@
         <v>719</v>
       </c>
       <c r="H345" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="I345" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -12416,10 +12419,10 @@
         <v>730</v>
       </c>
       <c r="H346" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="I346" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -12445,7 +12448,7 @@
         <v>890</v>
       </c>
       <c r="I347" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -12468,10 +12471,10 @@
         <v>740</v>
       </c>
       <c r="H348" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I348" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -12494,10 +12497,10 @@
         <v>741</v>
       </c>
       <c r="H349" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I349" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -12523,7 +12526,7 @@
         <v>820</v>
       </c>
       <c r="I350" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -12549,7 +12552,7 @@
         <v>893</v>
       </c>
       <c r="I351" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -12578,7 +12581,7 @@
         <v>851</v>
       </c>
       <c r="I352" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -12604,7 +12607,7 @@
         <v>894</v>
       </c>
       <c r="I353" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -12630,7 +12633,7 @@
         <v>893</v>
       </c>
       <c r="I354" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -12659,10 +12662,10 @@
         <v>895</v>
       </c>
       <c r="I355" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="J355" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -12688,10 +12691,10 @@
         <v>895</v>
       </c>
       <c r="I356" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="J356" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -12717,7 +12720,7 @@
         <v>881</v>
       </c>
       <c r="I357" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -12743,7 +12746,7 @@
         <v>820</v>
       </c>
       <c r="I358" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -12769,7 +12772,7 @@
         <v>893</v>
       </c>
       <c r="I359" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -12795,7 +12798,7 @@
         <v>851</v>
       </c>
       <c r="I360" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -12821,10 +12824,10 @@
         <v>895</v>
       </c>
       <c r="I361" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="J361" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -12850,7 +12853,7 @@
         <v>896</v>
       </c>
       <c r="I362" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -12876,7 +12879,7 @@
         <v>896</v>
       </c>
       <c r="I363" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -12902,7 +12905,7 @@
         <v>816</v>
       </c>
       <c r="I364" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -12928,7 +12931,7 @@
         <v>816</v>
       </c>
       <c r="I365" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -12954,7 +12957,7 @@
         <v>897</v>
       </c>
       <c r="I366" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -12977,13 +12980,13 @@
         <v>749</v>
       </c>
       <c r="H367" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I367" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J367" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -13006,13 +13009,13 @@
         <v>593</v>
       </c>
       <c r="H368" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I368" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J368" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -13035,13 +13038,13 @@
         <v>750</v>
       </c>
       <c r="H369" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I369" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J369" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -13064,13 +13067,13 @@
         <v>751</v>
       </c>
       <c r="H370" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I370" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J370" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -13093,13 +13096,13 @@
         <v>752</v>
       </c>
       <c r="H371" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I371" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J371" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -13125,7 +13128,7 @@
         <v>898</v>
       </c>
       <c r="I372" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -13151,7 +13154,7 @@
         <v>898</v>
       </c>
       <c r="I373" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -13177,7 +13180,7 @@
         <v>898</v>
       </c>
       <c r="I374" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -13203,7 +13206,7 @@
         <v>898</v>
       </c>
       <c r="I375" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -13229,7 +13232,7 @@
         <v>899</v>
       </c>
       <c r="I376" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -13255,7 +13258,7 @@
         <v>900</v>
       </c>
       <c r="I377" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -13281,7 +13284,7 @@
         <v>900</v>
       </c>
       <c r="I378" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -13310,7 +13313,7 @@
         <v>901</v>
       </c>
       <c r="I379" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -13339,7 +13342,7 @@
         <v>901</v>
       </c>
       <c r="I380" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -13368,7 +13371,7 @@
         <v>901</v>
       </c>
       <c r="I381" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -13397,7 +13400,7 @@
         <v>901</v>
       </c>
       <c r="I382" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -13420,10 +13423,10 @@
         <v>502</v>
       </c>
       <c r="H383" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="I383" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -13446,10 +13449,10 @@
         <v>723</v>
       </c>
       <c r="H384" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="I384" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -13472,10 +13475,10 @@
         <v>759</v>
       </c>
       <c r="H385" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="I385" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -13498,10 +13501,10 @@
         <v>760</v>
       </c>
       <c r="H386" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="I386" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -13524,10 +13527,10 @@
         <v>655</v>
       </c>
       <c r="H387" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="I387" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -13550,10 +13553,10 @@
         <v>761</v>
       </c>
       <c r="H388" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="I388" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -13576,10 +13579,10 @@
         <v>637</v>
       </c>
       <c r="H389" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="I389" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -13605,7 +13608,7 @@
         <v>902</v>
       </c>
       <c r="I390" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -13631,7 +13634,7 @@
         <v>902</v>
       </c>
       <c r="I391" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -13657,7 +13660,7 @@
         <v>903</v>
       </c>
       <c r="I392" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -13683,7 +13686,7 @@
         <v>903</v>
       </c>
       <c r="I393" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -13709,7 +13712,7 @@
         <v>903</v>
       </c>
       <c r="I394" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -13735,7 +13738,7 @@
         <v>904</v>
       </c>
       <c r="I395" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -13761,7 +13764,7 @@
         <v>905</v>
       </c>
       <c r="I396" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -13787,7 +13790,7 @@
         <v>905</v>
       </c>
       <c r="I397" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -13813,7 +13816,7 @@
         <v>906</v>
       </c>
       <c r="I398" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -13842,7 +13845,7 @@
         <v>907</v>
       </c>
       <c r="I399" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -13868,7 +13871,7 @@
         <v>907</v>
       </c>
       <c r="I400" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -13894,7 +13897,7 @@
         <v>907</v>
       </c>
       <c r="I401" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -13920,7 +13923,7 @@
         <v>907</v>
       </c>
       <c r="I402" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -13946,7 +13949,7 @@
         <v>907</v>
       </c>
       <c r="I403" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -13969,7 +13972,7 @@
         <v>593</v>
       </c>
       <c r="H404" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -13992,7 +13995,7 @@
         <v>768</v>
       </c>
       <c r="H405" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -14015,7 +14018,7 @@
         <v>769</v>
       </c>
       <c r="H406" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -14038,7 +14041,7 @@
         <v>770</v>
       </c>
       <c r="H407" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -14061,7 +14064,7 @@
         <v>771</v>
       </c>
       <c r="H408" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -14087,7 +14090,7 @@
         <v>908</v>
       </c>
       <c r="I409" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -14113,7 +14116,7 @@
         <v>908</v>
       </c>
       <c r="I410" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -14139,7 +14142,7 @@
         <v>908</v>
       </c>
       <c r="I411" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -14165,7 +14168,7 @@
         <v>908</v>
       </c>
       <c r="I412" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -14191,7 +14194,7 @@
         <v>908</v>
       </c>
       <c r="I413" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -14217,7 +14220,7 @@
         <v>909</v>
       </c>
       <c r="I414" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -14240,10 +14243,10 @@
         <v>496</v>
       </c>
       <c r="H415" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="I415" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -14269,7 +14272,7 @@
         <v>879</v>
       </c>
       <c r="I416" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -14295,7 +14298,7 @@
         <v>910</v>
       </c>
       <c r="I417" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -14324,7 +14327,7 @@
         <v>911</v>
       </c>
       <c r="I418" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -14353,7 +14356,7 @@
         <v>911</v>
       </c>
       <c r="I419" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -14382,7 +14385,7 @@
         <v>911</v>
       </c>
       <c r="I420" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -14411,7 +14414,7 @@
         <v>911</v>
       </c>
       <c r="I421" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -14440,7 +14443,7 @@
         <v>911</v>
       </c>
       <c r="I422" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -14469,7 +14472,7 @@
         <v>911</v>
       </c>
       <c r="I423" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -14495,7 +14498,7 @@
         <v>912</v>
       </c>
       <c r="I424" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -14524,7 +14527,7 @@
         <v>913</v>
       </c>
       <c r="I425" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -14553,7 +14556,7 @@
         <v>913</v>
       </c>
       <c r="I426" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -14582,7 +14585,7 @@
         <v>913</v>
       </c>
       <c r="I427" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -14611,7 +14614,7 @@
         <v>913</v>
       </c>
       <c r="I428" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -14640,7 +14643,7 @@
         <v>913</v>
       </c>
       <c r="I429" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -14669,7 +14672,7 @@
         <v>913</v>
       </c>
       <c r="I430" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -14698,7 +14701,7 @@
         <v>913</v>
       </c>
       <c r="I431" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -14727,7 +14730,7 @@
         <v>914</v>
       </c>
       <c r="I432" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.3">
@@ -14756,7 +14759,7 @@
         <v>914</v>
       </c>
       <c r="I433" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.3">
@@ -14782,10 +14785,10 @@
         <v>832</v>
       </c>
       <c r="I434" t="s">
+        <v>966</v>
+      </c>
+      <c r="J434" t="s">
         <v>970</v>
-      </c>
-      <c r="J434" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.3">
@@ -14811,10 +14814,10 @@
         <v>832</v>
       </c>
       <c r="I435" t="s">
+        <v>966</v>
+      </c>
+      <c r="J435" t="s">
         <v>970</v>
-      </c>
-      <c r="J435" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.3">
@@ -14840,10 +14843,10 @@
         <v>832</v>
       </c>
       <c r="I436" t="s">
+        <v>966</v>
+      </c>
+      <c r="J436" t="s">
         <v>970</v>
-      </c>
-      <c r="J436" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.3">
@@ -14869,10 +14872,10 @@
         <v>832</v>
       </c>
       <c r="I437" t="s">
+        <v>966</v>
+      </c>
+      <c r="J437" t="s">
         <v>970</v>
-      </c>
-      <c r="J437" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.3">
@@ -14898,10 +14901,10 @@
         <v>832</v>
       </c>
       <c r="I438" t="s">
+        <v>966</v>
+      </c>
+      <c r="J438" t="s">
         <v>970</v>
-      </c>
-      <c r="J438" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.3">
@@ -14927,10 +14930,10 @@
         <v>832</v>
       </c>
       <c r="I439" t="s">
+        <v>966</v>
+      </c>
+      <c r="J439" t="s">
         <v>970</v>
-      </c>
-      <c r="J439" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.3">
@@ -14953,10 +14956,10 @@
         <v>504</v>
       </c>
       <c r="H440" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I440" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.3">
@@ -14982,7 +14985,7 @@
         <v>915</v>
       </c>
       <c r="I441" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.3">
@@ -15008,7 +15011,7 @@
         <v>916</v>
       </c>
       <c r="I442" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.3">
@@ -15034,7 +15037,7 @@
         <v>917</v>
       </c>
       <c r="I443" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.3">
@@ -15057,10 +15060,10 @@
         <v>788</v>
       </c>
       <c r="H444" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I444" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.3">
@@ -15083,10 +15086,10 @@
         <v>789</v>
       </c>
       <c r="H445" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I445" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.3">
@@ -15109,10 +15112,10 @@
         <v>790</v>
       </c>
       <c r="H446" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I446" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.3">
@@ -15135,10 +15138,10 @@
         <v>791</v>
       </c>
       <c r="H447" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I447" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.3">
@@ -15161,10 +15164,10 @@
         <v>792</v>
       </c>
       <c r="H448" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I448" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
@@ -15187,10 +15190,10 @@
         <v>793</v>
       </c>
       <c r="H449" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I449" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
@@ -15213,10 +15216,10 @@
         <v>794</v>
       </c>
       <c r="H450" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I450" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
@@ -15242,7 +15245,7 @@
         <v>918</v>
       </c>
       <c r="I451" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
@@ -15268,7 +15271,7 @@
         <v>918</v>
       </c>
       <c r="I452" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
@@ -15294,7 +15297,7 @@
         <v>918</v>
       </c>
       <c r="I453" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
@@ -15320,7 +15323,7 @@
         <v>918</v>
       </c>
       <c r="I454" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
@@ -15346,7 +15349,7 @@
         <v>918</v>
       </c>
       <c r="I455" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
@@ -15372,7 +15375,7 @@
         <v>918</v>
       </c>
       <c r="I456" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
@@ -15398,7 +15401,7 @@
         <v>919</v>
       </c>
       <c r="I457" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
@@ -15424,7 +15427,7 @@
         <v>919</v>
       </c>
       <c r="I458" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
@@ -15450,7 +15453,7 @@
         <v>919</v>
       </c>
       <c r="I459" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
@@ -15476,7 +15479,7 @@
         <v>920</v>
       </c>
       <c r="I460" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.3">
@@ -15505,7 +15508,7 @@
         <v>921</v>
       </c>
       <c r="I461" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.3">
@@ -15531,7 +15534,7 @@
         <v>921</v>
       </c>
       <c r="I462" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.3">
@@ -15557,7 +15560,7 @@
         <v>921</v>
       </c>
       <c r="I463" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.3">
@@ -15583,7 +15586,7 @@
         <v>921</v>
       </c>
       <c r="I464" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
@@ -15609,7 +15612,7 @@
         <v>922</v>
       </c>
       <c r="I465" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -15635,7 +15638,7 @@
         <v>922</v>
       </c>
       <c r="I466" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -15661,7 +15664,7 @@
         <v>922</v>
       </c>
       <c r="I467" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -15687,7 +15690,7 @@
         <v>923</v>
       </c>
       <c r="I468" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
@@ -15713,7 +15716,7 @@
         <v>924</v>
       </c>
       <c r="I469" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
@@ -15739,7 +15742,7 @@
         <v>924</v>
       </c>
       <c r="I470" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -15762,10 +15765,10 @@
         <v>496</v>
       </c>
       <c r="H471" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I471" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -15791,7 +15794,7 @@
         <v>925</v>
       </c>
       <c r="I472" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -15817,7 +15820,7 @@
         <v>925</v>
       </c>
       <c r="I473" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -15843,7 +15846,7 @@
         <v>926</v>
       </c>
       <c r="I474" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
@@ -15869,7 +15872,7 @@
         <v>926</v>
       </c>
       <c r="I475" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
@@ -15895,7 +15898,7 @@
         <v>926</v>
       </c>
       <c r="I476" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.3">
@@ -15921,7 +15924,7 @@
         <v>926</v>
       </c>
       <c r="I477" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.3">
@@ -15947,7 +15950,7 @@
         <v>926</v>
       </c>
       <c r="I478" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.3">
@@ -15973,7 +15976,7 @@
         <v>926</v>
       </c>
       <c r="I479" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
@@ -15999,7 +16002,7 @@
         <v>926</v>
       </c>
       <c r="I480" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
@@ -16025,7 +16028,7 @@
         <v>927</v>
       </c>
       <c r="I481" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.3">
@@ -16051,7 +16054,7 @@
         <v>928</v>
       </c>
       <c r="I482" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.3">
@@ -16077,7 +16080,7 @@
         <v>929</v>
       </c>
       <c r="I483" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.3">
@@ -16103,7 +16106,7 @@
         <v>930</v>
       </c>
       <c r="I484" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.3">
@@ -16129,7 +16132,7 @@
         <v>875</v>
       </c>
       <c r="I485" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.3">
@@ -16155,7 +16158,7 @@
         <v>875</v>
       </c>
       <c r="I486" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
